--- a/preporcesed_data.xlsx
+++ b/preporcesed_data.xlsx
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="CK2">
-        <v>69.31763853496614</v>
+        <v>69.31763853686461</v>
       </c>
       <c r="CL2">
         <v>1</v>
@@ -4570,7 +4570,7 @@
         <v>43.4807856297891</v>
       </c>
       <c r="ER2">
-        <v>0.105823565355962</v>
+        <v>0.1058235652432415</v>
       </c>
       <c r="ES2">
         <v>1</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.7156183188323553</v>
+        <v>0.7156183237297569</v>
       </c>
       <c r="FE2">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>2021</v>
       </c>
       <c r="GX2">
-        <v>0.88379133012252</v>
+        <v>0.883791330221456</v>
       </c>
       <c r="GY2">
         <v>0</v>
@@ -4903,13 +4903,13 @@
         <v>1</v>
       </c>
       <c r="IY2">
-        <v>20214263.83496013</v>
+        <v>20214263.83492934</v>
       </c>
       <c r="IZ2" s="2">
         <v>44198</v>
       </c>
       <c r="JA2">
-        <v>20.60720369434206</v>
+        <v>20.60720363516859</v>
       </c>
       <c r="JB2">
         <v>0</v>
@@ -4954,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="JP2">
-        <v>860.6808447463136</v>
+        <v>860.6808427958229</v>
       </c>
       <c r="JQ2">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="JS2">
-        <v>860.6808447463136</v>
+        <v>860.6808427958229</v>
       </c>
       <c r="JT2">
         <v>2020</v>
@@ -5076,10 +5076,10 @@
         <v>5</v>
       </c>
       <c r="V3">
-        <v>11867123.825346</v>
+        <v>11867123.82057941</v>
       </c>
       <c r="W3">
-        <v>19993785.76173959</v>
+        <v>19993785.7460938</v>
       </c>
       <c r="X3">
         <v>2000</v>
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="CK3">
-        <v>69.32563759591693</v>
+        <v>69.32563756761141</v>
       </c>
       <c r="CL3">
         <v>1</v>
@@ -5490,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="FD3">
-        <v>2.142904965995172</v>
+        <v>2.14289901949104</v>
       </c>
       <c r="FE3">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>2021</v>
       </c>
       <c r="GX3">
-        <v>-0.3268180966949785</v>
+        <v>-0.3268378512973698</v>
       </c>
       <c r="GY3">
         <v>0</v>
@@ -5769,7 +5769,7 @@
         <v>2000</v>
       </c>
       <c r="IS3">
-        <v>2401.193848053874</v>
+        <v>2401.1938410769</v>
       </c>
       <c r="IT3">
         <v>11.8255</v>
@@ -5805,13 +5805,13 @@
         <v>561</v>
       </c>
       <c r="JE3">
-        <v>3423148.982489761</v>
+        <v>3423148.982707311</v>
       </c>
       <c r="JF3">
-        <v>3366854.254115017</v>
+        <v>3366854.254565961</v>
       </c>
       <c r="JG3">
-        <v>2417.418906821251</v>
+        <v>2417.418908013446</v>
       </c>
       <c r="JH3" t="s">
         <v>578</v>
@@ -6161,7 +6161,7 @@
         <v>1</v>
       </c>
       <c r="CK4">
-        <v>69.31763853496614</v>
+        <v>69.31763853686461</v>
       </c>
       <c r="CL4">
         <v>1</v>
@@ -6338,7 +6338,7 @@
         <v>43.39958601916666</v>
       </c>
       <c r="ER4">
-        <v>10.86734600520747</v>
+        <v>10.86734624721382</v>
       </c>
       <c r="ES4">
         <v>1</v>
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="FD4">
-        <v>1.776604428588769</v>
+        <v>1.776604430288444</v>
       </c>
       <c r="FE4">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>2021</v>
       </c>
       <c r="GX4">
-        <v>1.536249571579674</v>
+        <v>1.536249569401861</v>
       </c>
       <c r="GY4">
         <v>0</v>
@@ -6671,13 +6671,13 @@
         <v>0</v>
       </c>
       <c r="IY4">
-        <v>20226691.76642101</v>
+        <v>20226691.7663989</v>
       </c>
       <c r="IZ4" s="2">
         <v>44198</v>
       </c>
       <c r="JA4">
-        <v>82.08852829942811</v>
+        <v>82.08852826084231</v>
       </c>
       <c r="JB4">
         <v>0</v>
@@ -6949,7 +6949,7 @@
         <v>1</v>
       </c>
       <c r="BE5">
-        <v>27.08015998404397</v>
+        <v>27.08015998166501</v>
       </c>
       <c r="BF5">
         <v>0</v>
@@ -7045,7 +7045,7 @@
         <v>1</v>
       </c>
       <c r="CK5">
-        <v>69.31763853496614</v>
+        <v>69.31763853686461</v>
       </c>
       <c r="CL5">
         <v>1</v>
@@ -7222,7 +7222,7 @@
         <v>43.39417215865365</v>
       </c>
       <c r="ER5">
-        <v>0.2247680043872435</v>
+        <v>0.2247680044053908</v>
       </c>
       <c r="ES5">
         <v>1</v>
@@ -7258,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.9179720274847796</v>
+        <v>0.9179720307719208</v>
       </c>
       <c r="FE5">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>2021</v>
       </c>
       <c r="GX5">
-        <v>0.6816238063157272</v>
+        <v>0.6816238055814381</v>
       </c>
       <c r="GY5">
         <v>0</v>
@@ -7537,7 +7537,7 @@
         <v>1987</v>
       </c>
       <c r="IS5">
-        <v>825.6558550389491</v>
+        <v>825.6558535585791</v>
       </c>
       <c r="IT5">
         <v>0</v>
@@ -7555,13 +7555,13 @@
         <v>1</v>
       </c>
       <c r="IY5">
-        <v>20214786.87953309</v>
+        <v>20214786.87950276</v>
       </c>
       <c r="IZ5" s="2">
         <v>44198</v>
       </c>
       <c r="JA5">
-        <v>17.92790651498286</v>
+        <v>17.92790646184314</v>
       </c>
       <c r="JB5">
         <v>0</v>
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="JG5">
-        <v>810.795196673811</v>
+        <v>810.795199157852</v>
       </c>
       <c r="JH5" t="s">
         <v>580</v>
@@ -7929,7 +7929,7 @@
         <v>1</v>
       </c>
       <c r="CK6">
-        <v>69.31763853496614</v>
+        <v>69.31763853686461</v>
       </c>
       <c r="CL6">
         <v>1</v>
@@ -8106,7 +8106,7 @@
         <v>43.43541804648488</v>
       </c>
       <c r="ER6">
-        <v>25.54730851157331</v>
+        <v>25.54730770047183</v>
       </c>
       <c r="ES6">
         <v>1</v>
@@ -8142,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="FD6">
-        <v>1.34392646869378</v>
+        <v>1.343926472882345</v>
       </c>
       <c r="FE6">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>2021</v>
       </c>
       <c r="GX6">
-        <v>0.9753815198170344</v>
+        <v>0.9753815165981763</v>
       </c>
       <c r="GY6">
         <v>0</v>
@@ -8421,7 +8421,7 @@
         <v>1989</v>
       </c>
       <c r="IS6">
-        <v>1019.234149866137</v>
+        <v>1019.23415098184</v>
       </c>
       <c r="IT6">
         <v>0</v>
@@ -8439,13 +8439,13 @@
         <v>0</v>
       </c>
       <c r="IY6">
-        <v>20216162.71413247</v>
+        <v>20216162.71409643</v>
       </c>
       <c r="IZ6" s="2">
         <v>44198</v>
       </c>
       <c r="JA6">
-        <v>39.337947419897</v>
+        <v>39.33794736413844</v>
       </c>
       <c r="JB6">
         <v>0</v>
@@ -8457,13 +8457,13 @@
         <v>562</v>
       </c>
       <c r="JE6">
-        <v>1439060.053662355</v>
+        <v>1439060.052614176</v>
       </c>
       <c r="JF6">
-        <v>1447696.283723417</v>
+        <v>1447696.282265054</v>
       </c>
       <c r="JG6">
-        <v>1128.764167510722</v>
+        <v>1128.764169987764</v>
       </c>
       <c r="JH6" t="s">
         <v>488</v>
@@ -8990,7 +8990,7 @@
         <v>43.44956402606111</v>
       </c>
       <c r="ER7">
-        <v>-1.683554147792975</v>
+        <v>-1.683532300139916</v>
       </c>
       <c r="ES7">
         <v>1</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="FD7">
-        <v>0.4550587748744306</v>
+        <v>0.4550587765643286</v>
       </c>
       <c r="FE7">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>2021</v>
       </c>
       <c r="GX7">
-        <v>0.7670036747137488</v>
+        <v>0.7670036753421385</v>
       </c>
       <c r="GY7">
         <v>0</v>
@@ -9323,13 +9323,13 @@
         <v>0</v>
       </c>
       <c r="IY7">
-        <v>20225729.08693393</v>
+        <v>20225729.0869015</v>
       </c>
       <c r="IZ7" s="2">
         <v>44198</v>
       </c>
       <c r="JA7">
-        <v>71.7556537299556</v>
+        <v>71.75565366656727</v>
       </c>
       <c r="JB7">
         <v>0</v>
@@ -9697,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="CK8">
-        <v>69.31763853496614</v>
+        <v>69.31763853686461</v>
       </c>
       <c r="CL8">
         <v>1</v>
@@ -9874,7 +9874,7 @@
         <v>43.44857470163221</v>
       </c>
       <c r="ER8">
-        <v>17.08259222987287</v>
+        <v>17.08259105708954</v>
       </c>
       <c r="ES8">
         <v>1</v>
@@ -9910,7 +9910,7 @@
         <v>0</v>
       </c>
       <c r="FD8">
-        <v>0.923275716785497</v>
+        <v>0.9232757207049076</v>
       </c>
       <c r="FE8">
         <v>0</v>
@@ -10048,7 +10048,7 @@
         <v>2021</v>
       </c>
       <c r="GX8">
-        <v>0.4759458686758506</v>
+        <v>0.4759458669038992</v>
       </c>
       <c r="GY8">
         <v>0</v>
@@ -10207,13 +10207,13 @@
         <v>0</v>
       </c>
       <c r="IY8">
-        <v>20215126.73871378</v>
+        <v>20215126.73868512</v>
       </c>
       <c r="IZ8" s="2">
         <v>44198</v>
       </c>
       <c r="JA8">
-        <v>37.61808620516079</v>
+        <v>37.61808615264897</v>
       </c>
       <c r="JB8">
         <v>0</v>
@@ -10758,7 +10758,7 @@
         <v>43.3945896</v>
       </c>
       <c r="ER9">
-        <v>-15.45329146454807</v>
+        <v>-15.45326895857568</v>
       </c>
       <c r="ES9">
         <v>1</v>
@@ -10794,7 +10794,7 @@
         <v>0</v>
       </c>
       <c r="FD9">
-        <v>0.9255184964545151</v>
+        <v>0.9255184960738916</v>
       </c>
       <c r="FE9">
         <v>0</v>
@@ -10932,7 +10932,7 @@
         <v>2021</v>
       </c>
       <c r="GX9">
-        <v>0.8303794925024164</v>
+        <v>0.830379490219741</v>
       </c>
       <c r="GY9">
         <v>0</v>
@@ -11091,13 +11091,13 @@
         <v>0</v>
       </c>
       <c r="IY9">
-        <v>20231497.08048004</v>
+        <v>20231497.08044448</v>
       </c>
       <c r="IZ9" s="2">
         <v>44198</v>
       </c>
       <c r="JA9">
-        <v>92.80852363094321</v>
+        <v>92.8085235764366</v>
       </c>
       <c r="JB9">
         <v>0</v>
@@ -11678,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="FD10">
-        <v>-1.488613911148434</v>
+        <v>-1.488613896779896</v>
       </c>
       <c r="FE10">
         <v>0</v>
@@ -11816,7 +11816,7 @@
         <v>2021</v>
       </c>
       <c r="GX10">
-        <v>0.7230464519542608</v>
+        <v>0.7230464462787438</v>
       </c>
       <c r="GY10">
         <v>0</v>
@@ -11981,7 +11981,7 @@
         <v>44198</v>
       </c>
       <c r="JA10">
-        <v>19.03688216534673</v>
+        <v>19.03688212766268</v>
       </c>
       <c r="JB10">
         <v>0</v>
@@ -12349,7 +12349,7 @@
         <v>1</v>
       </c>
       <c r="CK11">
-        <v>69.09859599344644</v>
+        <v>69.09859599133252</v>
       </c>
       <c r="CL11">
         <v>1</v>
@@ -12562,7 +12562,7 @@
         <v>0</v>
       </c>
       <c r="FD11">
-        <v>0.7442550956575928</v>
+        <v>0.7442542095479325</v>
       </c>
       <c r="FE11">
         <v>0</v>
@@ -12700,7 +12700,7 @@
         <v>2021</v>
       </c>
       <c r="GX11">
-        <v>1.551498807613626</v>
+        <v>1.551499232253605</v>
       </c>
       <c r="GY11">
         <v>0</v>
@@ -12841,7 +12841,7 @@
         <v>2003</v>
       </c>
       <c r="IS11">
-        <v>1810.331052591704</v>
+        <v>1810.331052083784</v>
       </c>
       <c r="IT11">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="JG11">
-        <v>1788.838918261928</v>
+        <v>1788.838918339534</v>
       </c>
       <c r="JH11" t="s">
         <v>585</v>
@@ -12910,7 +12910,7 @@
         <v>1</v>
       </c>
       <c r="JP11">
-        <v>328.0626719942813</v>
+        <v>328.0626676614118</v>
       </c>
       <c r="JQ11">
         <v>0</v>
@@ -12919,7 +12919,7 @@
         <v>0</v>
       </c>
       <c r="JS11">
-        <v>328.0626719942813</v>
+        <v>328.0626676614118</v>
       </c>
       <c r="JT11">
         <v>2020</v>
@@ -13410,7 +13410,7 @@
         <v>43.43553979173091</v>
       </c>
       <c r="ER12">
-        <v>6.508718164293327</v>
+        <v>6.508747043237122</v>
       </c>
       <c r="ES12">
         <v>1</v>
@@ -13446,7 +13446,7 @@
         <v>0</v>
       </c>
       <c r="FD12">
-        <v>1.375603847314039</v>
+        <v>1.375607146802849</v>
       </c>
       <c r="FE12">
         <v>0</v>
@@ -13584,7 +13584,7 @@
         <v>2021</v>
       </c>
       <c r="GX12">
-        <v>0.9615442757258279</v>
+        <v>0.9615590569487722</v>
       </c>
       <c r="GY12">
         <v>0</v>
@@ -14117,7 +14117,7 @@
         <v>0</v>
       </c>
       <c r="CK13">
-        <v>69.31763853496614</v>
+        <v>69.31763853686461</v>
       </c>
       <c r="CL13">
         <v>1</v>
@@ -14294,7 +14294,7 @@
         <v>43.48019805269531</v>
       </c>
       <c r="ER13">
-        <v>0.2098411556629998</v>
+        <v>0.2098411557461333</v>
       </c>
       <c r="ES13">
         <v>1</v>
@@ -14330,7 +14330,7 @@
         <v>0</v>
       </c>
       <c r="FD13">
-        <v>0.4942656000491183</v>
+        <v>0.4942655996472354</v>
       </c>
       <c r="FE13">
         <v>0</v>
@@ -14468,7 +14468,7 @@
         <v>2021</v>
       </c>
       <c r="GX13">
-        <v>1.096048966383933</v>
+        <v>1.096048966615669</v>
       </c>
       <c r="GY13">
         <v>0</v>
@@ -14609,7 +14609,7 @@
         <v>2014</v>
       </c>
       <c r="IS13">
-        <v>1063.391785883185</v>
+        <v>1063.391784298114</v>
       </c>
       <c r="IT13">
         <v>0</v>
@@ -14627,13 +14627,13 @@
         <v>1</v>
       </c>
       <c r="IY13">
-        <v>20214880.07702168</v>
+        <v>20214880.07699831</v>
       </c>
       <c r="IZ13" s="2">
         <v>44202</v>
       </c>
       <c r="JA13">
-        <v>17.75738571870009</v>
+        <v>17.75738566977255</v>
       </c>
       <c r="JB13">
         <v>0</v>
@@ -14651,7 +14651,7 @@
         <v>0</v>
       </c>
       <c r="JG13">
-        <v>1196.409788012526</v>
+        <v>1196.409788417754</v>
       </c>
       <c r="JH13" t="s">
         <v>587</v>
@@ -15214,7 +15214,7 @@
         <v>0</v>
       </c>
       <c r="FD14">
-        <v>1.085053167352498</v>
+        <v>1.085051651411504</v>
       </c>
       <c r="FE14">
         <v>0</v>
@@ -15352,7 +15352,7 @@
         <v>2021</v>
       </c>
       <c r="GX14">
-        <v>1.837313125063687</v>
+        <v>1.837313851359724</v>
       </c>
       <c r="GY14">
         <v>0</v>
@@ -15493,7 +15493,7 @@
         <v>2008</v>
       </c>
       <c r="IS14">
-        <v>1139.808138007946</v>
+        <v>1139.808142548587</v>
       </c>
       <c r="IT14">
         <v>23.628</v>
@@ -15535,7 +15535,7 @@
         <v>0</v>
       </c>
       <c r="JG14">
-        <v>1329.953796133137</v>
+        <v>1329.953798120987</v>
       </c>
       <c r="JH14" t="s">
         <v>588</v>
@@ -15562,7 +15562,7 @@
         <v>1</v>
       </c>
       <c r="JP14">
-        <v>6090.633822997121</v>
+        <v>6090.633823623926</v>
       </c>
       <c r="JQ14">
         <v>0</v>
@@ -15571,7 +15571,7 @@
         <v>0</v>
       </c>
       <c r="JS14">
-        <v>6090.633822997121</v>
+        <v>6090.633823623926</v>
       </c>
       <c r="JT14">
         <v>2016</v>
@@ -15885,7 +15885,7 @@
         <v>1</v>
       </c>
       <c r="CK15">
-        <v>68.82237107944587</v>
+        <v>68.82237108460158</v>
       </c>
       <c r="CL15">
         <v>1</v>
@@ -16098,7 +16098,7 @@
         <v>0</v>
       </c>
       <c r="FD15">
-        <v>1.14375522647714</v>
+        <v>1.143755230952991</v>
       </c>
       <c r="FE15">
         <v>0</v>
@@ -16236,7 +16236,7 @@
         <v>2021</v>
       </c>
       <c r="GX15">
-        <v>1.689330564986975</v>
+        <v>1.689330567274496</v>
       </c>
       <c r="GY15">
         <v>0</v>
@@ -16377,7 +16377,7 @@
         <v>2002</v>
       </c>
       <c r="IS15">
-        <v>2365.212923174528</v>
+        <v>2365.212922666229</v>
       </c>
       <c r="IT15">
         <v>0</v>
@@ -16395,13 +16395,13 @@
         <v>1</v>
       </c>
       <c r="IY15">
-        <v>20216670.10948639</v>
+        <v>20216670.10946909</v>
       </c>
       <c r="IZ15" s="2">
         <v>44202</v>
       </c>
       <c r="JA15">
-        <v>18.7222698185211</v>
+        <v>18.72226977171922</v>
       </c>
       <c r="JB15">
         <v>0</v>
@@ -16419,7 +16419,7 @@
         <v>0</v>
       </c>
       <c r="JG15">
-        <v>2348.189199594643</v>
+        <v>2348.18920173571</v>
       </c>
       <c r="JH15" t="s">
         <v>589</v>
@@ -16446,7 +16446,7 @@
         <v>1</v>
       </c>
       <c r="JP15">
-        <v>255.8043282970127</v>
+        <v>255.8043292514446</v>
       </c>
       <c r="JQ15">
         <v>0</v>
@@ -16455,7 +16455,7 @@
         <v>0</v>
       </c>
       <c r="JS15">
-        <v>255.8043282970127</v>
+        <v>255.8043292514446</v>
       </c>
       <c r="JT15">
         <v>2018</v>
@@ -16946,7 +16946,7 @@
         <v>43.4790114</v>
       </c>
       <c r="ER16">
-        <v>-10.63926885982582</v>
+        <v>-10.63924355771917</v>
       </c>
       <c r="ES16">
         <v>1</v>
@@ -16982,7 +16982,7 @@
         <v>0</v>
       </c>
       <c r="FD16">
-        <v>1.195408926447044</v>
+        <v>1.19541335264563</v>
       </c>
       <c r="FE16">
         <v>0</v>
@@ -17120,7 +17120,7 @@
         <v>2021</v>
       </c>
       <c r="GX16">
-        <v>0.9232894427581613</v>
+        <v>0.9233092233808406</v>
       </c>
       <c r="GY16">
         <v>0</v>
@@ -17279,13 +17279,13 @@
         <v>0</v>
       </c>
       <c r="IY16">
-        <v>20223553.74497399</v>
+        <v>20223553.74494147</v>
       </c>
       <c r="IZ16" s="2">
         <v>44202</v>
       </c>
       <c r="JA16">
-        <v>60.1919596464854</v>
+        <v>60.19195959349933</v>
       </c>
       <c r="JB16">
         <v>0</v>
@@ -17653,7 +17653,7 @@
         <v>1</v>
       </c>
       <c r="CK17">
-        <v>70.03384887657656</v>
+        <v>70.03384885406197</v>
       </c>
       <c r="CL17">
         <v>1</v>
@@ -18214,7 +18214,7 @@
         <v>1</v>
       </c>
       <c r="JP17">
-        <v>1364.20707059283</v>
+        <v>1364.207071214259</v>
       </c>
       <c r="JQ17">
         <v>0</v>
@@ -18223,7 +18223,7 @@
         <v>0</v>
       </c>
       <c r="JS17">
-        <v>1364.20707059283</v>
+        <v>1364.207071214259</v>
       </c>
       <c r="JT17">
         <v>2020</v>
@@ -18336,10 +18336,10 @@
         <v>4</v>
       </c>
       <c r="V18">
-        <v>10040014.83129453</v>
+        <v>10040014.82357954</v>
       </c>
       <c r="W18">
-        <v>17427790.91687946</v>
+        <v>17427790.89950319</v>
       </c>
       <c r="X18">
         <v>1990</v>
@@ -18714,7 +18714,7 @@
         <v>43.4031401</v>
       </c>
       <c r="ER18">
-        <v>22.69125183667758</v>
+        <v>22.69130179310709</v>
       </c>
       <c r="ES18">
         <v>1</v>
@@ -18750,7 +18750,7 @@
         <v>0</v>
       </c>
       <c r="FD18">
-        <v>5.396939827074448</v>
+        <v>5.396926448386466</v>
       </c>
       <c r="FE18">
         <v>0</v>
@@ -18888,7 +18888,7 @@
         <v>2021</v>
       </c>
       <c r="GX18">
-        <v>1.463078685680699</v>
+        <v>1.463034212645752</v>
       </c>
       <c r="GY18">
         <v>0</v>
@@ -19029,7 +19029,7 @@
         <v>1990</v>
       </c>
       <c r="IS18">
-        <v>1983.636338481883</v>
+        <v>1983.636335678617</v>
       </c>
       <c r="IT18">
         <v>18.2754</v>
@@ -19065,13 +19065,13 @@
         <v>562</v>
       </c>
       <c r="JE18">
-        <v>3091898.334881708</v>
+        <v>3091898.333981531</v>
       </c>
       <c r="JF18">
-        <v>3047023.742227289</v>
+        <v>3047023.741147899</v>
       </c>
       <c r="JG18">
-        <v>1928.308457522726</v>
+        <v>1928.308461262903</v>
       </c>
       <c r="JH18" t="s">
         <v>592</v>
@@ -19421,7 +19421,7 @@
         <v>1</v>
       </c>
       <c r="CK19">
-        <v>69.31763853496614</v>
+        <v>69.31763853686461</v>
       </c>
       <c r="CL19">
         <v>1</v>
@@ -19634,7 +19634,7 @@
         <v>0</v>
       </c>
       <c r="FD19">
-        <v>0.961856527098746</v>
+        <v>0.9618565279756126</v>
       </c>
       <c r="FE19">
         <v>0</v>
@@ -19772,7 +19772,7 @@
         <v>2021</v>
       </c>
       <c r="GX19">
-        <v>1.988052135753009</v>
+        <v>1.988052135570868</v>
       </c>
       <c r="GY19">
         <v>0</v>
@@ -19982,7 +19982,7 @@
         <v>1</v>
       </c>
       <c r="JP19">
-        <v>211.0453196263304</v>
+        <v>211.0453188366851</v>
       </c>
       <c r="JQ19">
         <v>0</v>
@@ -19991,7 +19991,7 @@
         <v>0</v>
       </c>
       <c r="JS19">
-        <v>211.0453196263304</v>
+        <v>211.0453188366851</v>
       </c>
       <c r="JT19">
         <v>2020</v>
@@ -20104,10 +20104,10 @@
         <v>3</v>
       </c>
       <c r="V20">
-        <v>10215592.01314351</v>
+        <v>10215592.0168363</v>
       </c>
       <c r="W20">
-        <v>17511047.90501446</v>
+        <v>17511047.90819898</v>
       </c>
       <c r="X20">
         <v>1993</v>
@@ -20518,7 +20518,7 @@
         <v>0</v>
       </c>
       <c r="FD20">
-        <v>4.312482110691008</v>
+        <v>4.312471910245222</v>
       </c>
       <c r="FE20">
         <v>0</v>
@@ -20656,7 +20656,7 @@
         <v>2021</v>
       </c>
       <c r="GX20">
-        <v>2.996935659389493</v>
+        <v>2.996901730122786</v>
       </c>
       <c r="GY20">
         <v>0</v>
@@ -20988,10 +20988,10 @@
         <v>3</v>
       </c>
       <c r="V21">
-        <v>11635226.67309793</v>
+        <v>11635226.68274048</v>
       </c>
       <c r="W21">
-        <v>19757163.14170812</v>
+        <v>19757163.15491029</v>
       </c>
       <c r="X21">
         <v>1994</v>
@@ -21402,7 +21402,7 @@
         <v>0</v>
       </c>
       <c r="FD21">
-        <v>3.730005027473396</v>
+        <v>3.729994513809913</v>
       </c>
       <c r="FE21">
         <v>0</v>
@@ -21540,7 +21540,7 @@
         <v>2021</v>
       </c>
       <c r="GX21">
-        <v>0.6683994852327828</v>
+        <v>0.6683645189632301</v>
       </c>
       <c r="GY21">
         <v>0</v>
@@ -21681,7 +21681,7 @@
         <v>1994</v>
       </c>
       <c r="IS21">
-        <v>1223.632597457217</v>
+        <v>1223.632594608771</v>
       </c>
       <c r="IT21">
         <v>0</v>
@@ -21717,13 +21717,13 @@
         <v>562</v>
       </c>
       <c r="JE21">
-        <v>2672167.775744888</v>
+        <v>2672167.775377774</v>
       </c>
       <c r="JF21">
-        <v>2643374.123435949</v>
+        <v>2643374.12338131</v>
       </c>
       <c r="JG21">
-        <v>1163.203025950621</v>
+        <v>1163.203027811192</v>
       </c>
       <c r="JH21" t="s">
         <v>595</v>
@@ -22073,7 +22073,7 @@
         <v>0</v>
       </c>
       <c r="CK22">
-        <v>68.35628667313703</v>
+        <v>68.35628662194701</v>
       </c>
       <c r="CL22">
         <v>1</v>
@@ -22250,7 +22250,7 @@
         <v>43.4740738</v>
       </c>
       <c r="ER22">
-        <v>2.774192789037826</v>
+        <v>2.774218263450578</v>
       </c>
       <c r="ES22">
         <v>1</v>
@@ -22286,7 +22286,7 @@
         <v>0</v>
       </c>
       <c r="FD22">
-        <v>1.206502914943485</v>
+        <v>1.206506141378497</v>
       </c>
       <c r="FE22">
         <v>0</v>
@@ -22424,7 +22424,7 @@
         <v>2021</v>
       </c>
       <c r="GX22">
-        <v>0.7437220306316306</v>
+        <v>0.7437364642220246</v>
       </c>
       <c r="GY22">
         <v>0</v>
@@ -22756,10 +22756,10 @@
         <v>3</v>
       </c>
       <c r="V23">
-        <v>10828260.7678506</v>
+        <v>10828260.77286582</v>
       </c>
       <c r="W23">
-        <v>18476401.2096997</v>
+        <v>18476401.21633061</v>
       </c>
       <c r="X23">
         <v>1997</v>
@@ -22957,7 +22957,7 @@
         <v>0</v>
       </c>
       <c r="CK23">
-        <v>69.78908526151447</v>
+        <v>69.78908524944519</v>
       </c>
       <c r="CL23">
         <v>1</v>
@@ -23170,7 +23170,7 @@
         <v>0</v>
       </c>
       <c r="FD23">
-        <v>3.366332921900835</v>
+        <v>3.366324662973057</v>
       </c>
       <c r="FE23">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>2021</v>
       </c>
       <c r="GX23">
-        <v>2.059624032152158</v>
+        <v>2.059596568426286</v>
       </c>
       <c r="GY23">
         <v>0</v>
@@ -23449,7 +23449,7 @@
         <v>1997</v>
       </c>
       <c r="IS23">
-        <v>1649.384865114371</v>
+        <v>1649.384859408226</v>
       </c>
       <c r="IT23">
         <v>8.814500000000001</v>
@@ -23485,13 +23485,13 @@
         <v>562</v>
       </c>
       <c r="JE23">
-        <v>2860005.171149302</v>
+        <v>2860005.170068226</v>
       </c>
       <c r="JF23">
-        <v>2826799.854530946</v>
+        <v>2826799.85316067</v>
       </c>
       <c r="JG23">
-        <v>1666.495914508661</v>
+        <v>1666.495913454914</v>
       </c>
       <c r="JH23" t="s">
         <v>597</v>
@@ -23640,10 +23640,10 @@
         <v>5</v>
       </c>
       <c r="V24">
-        <v>10814482.86247062</v>
+        <v>10814482.86190993</v>
       </c>
       <c r="W24">
-        <v>18366189.04322509</v>
+        <v>18366189.03715566</v>
       </c>
       <c r="X24">
         <v>1999</v>
@@ -23841,7 +23841,7 @@
         <v>0</v>
       </c>
       <c r="CK24">
-        <v>69.31017137891808</v>
+        <v>69.31017137255125</v>
       </c>
       <c r="CL24">
         <v>1</v>
@@ -24018,7 +24018,7 @@
         <v>43.4780583</v>
       </c>
       <c r="ER24">
-        <v>-12.89509158192458</v>
+        <v>-12.89503005970161</v>
       </c>
       <c r="ES24">
         <v>1</v>
@@ -24054,7 +24054,7 @@
         <v>0</v>
       </c>
       <c r="FD24">
-        <v>3.128892100595863</v>
+        <v>3.128881718520859</v>
       </c>
       <c r="FE24">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>2021</v>
       </c>
       <c r="GX24">
-        <v>0.6588047719227177</v>
+        <v>0.6587702428692523</v>
       </c>
       <c r="GY24">
         <v>0</v>
@@ -24524,10 +24524,10 @@
         <v>3</v>
       </c>
       <c r="V25">
-        <v>11419673.69931298</v>
+        <v>11419673.70801667</v>
       </c>
       <c r="W25">
-        <v>19425402.00504986</v>
+        <v>19425402.01716918</v>
       </c>
       <c r="X25">
         <v>2000</v>
@@ -24902,7 +24902,7 @@
         <v>43.4323702</v>
       </c>
       <c r="ER25">
-        <v>16.79651528823204</v>
+        <v>16.79657159928884</v>
       </c>
       <c r="ES25">
         <v>1</v>
@@ -24938,7 +24938,7 @@
         <v>0</v>
       </c>
       <c r="FD25">
-        <v>4.047222764765252</v>
+        <v>4.047211244083087</v>
       </c>
       <c r="FE25">
         <v>0</v>
@@ -25076,7 +25076,7 @@
         <v>2021</v>
       </c>
       <c r="GX25">
-        <v>1.245276324001054</v>
+        <v>1.245238015131065</v>
       </c>
       <c r="GY25">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>43.4860204</v>
       </c>
       <c r="ER26">
-        <v>-5.661509817108055</v>
+        <v>-5.66147995294105</v>
       </c>
       <c r="ES26">
         <v>1</v>
@@ -25822,7 +25822,7 @@
         <v>0</v>
       </c>
       <c r="FD26">
-        <v>1.564815007962807</v>
+        <v>1.564819596328277</v>
       </c>
       <c r="FE26">
         <v>0</v>
@@ -25960,7 +25960,7 @@
         <v>2021</v>
       </c>
       <c r="GX26">
-        <v>1.004888879098232</v>
+        <v>1.004909410386276</v>
       </c>
       <c r="GY26">
         <v>0</v>
@@ -26706,7 +26706,7 @@
         <v>0</v>
       </c>
       <c r="FD27">
-        <v>1.054596806386144</v>
+        <v>1.054595653088825</v>
       </c>
       <c r="FE27">
         <v>0</v>
@@ -26844,7 +26844,7 @@
         <v>2021</v>
       </c>
       <c r="GX27">
-        <v>2.647180784887752</v>
+        <v>2.647181339390301</v>
       </c>
       <c r="GY27">
         <v>0</v>
@@ -27054,7 +27054,7 @@
         <v>1</v>
       </c>
       <c r="JP27">
-        <v>2914.03952788776</v>
+        <v>2914.039528103379</v>
       </c>
       <c r="JQ27">
         <v>0</v>
@@ -27063,7 +27063,7 @@
         <v>0</v>
       </c>
       <c r="JS27">
-        <v>2914.03952788776</v>
+        <v>2914.039528103379</v>
       </c>
       <c r="JT27">
         <v>2020</v>
@@ -27590,7 +27590,7 @@
         <v>1</v>
       </c>
       <c r="FD28">
-        <v>2.267425860847595</v>
+        <v>2.267433041408538</v>
       </c>
       <c r="FE28">
         <v>0</v>
@@ -27728,7 +27728,7 @@
         <v>2021</v>
       </c>
       <c r="GX28">
-        <v>1.564343357908768</v>
+        <v>1.564375458987641</v>
       </c>
       <c r="GY28">
         <v>0</v>
@@ -27869,7 +27869,7 @@
         <v>2004</v>
       </c>
       <c r="IS28">
-        <v>2095.554053068561</v>
+        <v>2095.554046001336</v>
       </c>
       <c r="IT28">
         <v>0</v>
@@ -27905,13 +27905,13 @@
         <v>562</v>
       </c>
       <c r="JE28">
-        <v>1917342.858990826</v>
+        <v>1917342.858448032</v>
       </c>
       <c r="JF28">
-        <v>1904283.936526172</v>
+        <v>1904283.935817117</v>
       </c>
       <c r="JG28">
-        <v>1984.100853799937</v>
+        <v>1984.100853238109</v>
       </c>
       <c r="JH28" t="s">
         <v>602</v>
@@ -28081,7 +28081,7 @@
         <v>0</v>
       </c>
       <c r="AC29">
-        <v>20.10278300676208</v>
+        <v>20.10278298876516</v>
       </c>
       <c r="AD29">
         <v>1</v>
@@ -28261,7 +28261,7 @@
         <v>0</v>
       </c>
       <c r="CK29">
-        <v>69.31763853496614</v>
+        <v>69.31763853686461</v>
       </c>
       <c r="CL29">
         <v>1</v>
@@ -28438,7 +28438,7 @@
         <v>43.4473877</v>
       </c>
       <c r="ER29">
-        <v>0.1597671419668814</v>
+        <v>0.1597671419803106</v>
       </c>
       <c r="ES29">
         <v>1</v>
@@ -28474,7 +28474,7 @@
         <v>1</v>
       </c>
       <c r="FD29">
-        <v>1.166608366103333</v>
+        <v>1.166608370231529</v>
       </c>
       <c r="FE29">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>2021</v>
       </c>
       <c r="GX29">
-        <v>0.8266221608135425</v>
+        <v>0.8266221588700517</v>
       </c>
       <c r="GY29">
         <v>0</v>
@@ -28771,13 +28771,13 @@
         <v>1</v>
       </c>
       <c r="IY29">
-        <v>20214387.75639256</v>
+        <v>20214387.75636379</v>
       </c>
       <c r="IZ29" s="2">
         <v>44203</v>
       </c>
       <c r="JA29">
-        <v>19.24819243622105</v>
+        <v>19.24819237865291</v>
       </c>
       <c r="JB29">
         <v>0</v>
@@ -29145,7 +29145,7 @@
         <v>1</v>
       </c>
       <c r="CK30">
-        <v>69.37042406564922</v>
+        <v>69.37042402305443</v>
       </c>
       <c r="CL30">
         <v>1</v>
@@ -29637,7 +29637,7 @@
         <v>2012</v>
       </c>
       <c r="IS30">
-        <v>1325.516991390614</v>
+        <v>1325.516992003457</v>
       </c>
       <c r="IT30">
         <v>19.8012</v>
@@ -29673,13 +29673,13 @@
         <v>566</v>
       </c>
       <c r="JE30">
-        <v>1744384.670659672</v>
+        <v>1744384.670603704</v>
       </c>
       <c r="JF30">
-        <v>1733264.182038511</v>
+        <v>1733264.181776521</v>
       </c>
       <c r="JG30">
-        <v>1275.660320991657</v>
+        <v>1275.660318003502</v>
       </c>
       <c r="JH30" t="s">
         <v>603</v>
@@ -29828,10 +29828,10 @@
         <v>5</v>
       </c>
       <c r="V31">
-        <v>9721111.889914397</v>
+        <v>9721111.87418336</v>
       </c>
       <c r="W31">
-        <v>16797738.0099121</v>
+        <v>16797737.98020629</v>
       </c>
       <c r="X31">
         <v>2008</v>
@@ -29849,7 +29849,7 @@
         <v>0</v>
       </c>
       <c r="AC31">
-        <v>26.83969545889306</v>
+        <v>26.83969547279973</v>
       </c>
       <c r="AD31">
         <v>1</v>
@@ -30029,7 +30029,7 @@
         <v>0</v>
       </c>
       <c r="CK31">
-        <v>70.11112171575546</v>
+        <v>70.11112178075352</v>
       </c>
       <c r="CL31">
         <v>1</v>
@@ -30206,7 +30206,7 @@
         <v>43.4779171</v>
       </c>
       <c r="ER31">
-        <v>20.03974081616955</v>
+        <v>20.03979478362261</v>
       </c>
       <c r="ES31">
         <v>1</v>
@@ -30242,7 +30242,7 @@
         <v>1</v>
       </c>
       <c r="FD31">
-        <v>3.178963844767509</v>
+        <v>3.178955620263878</v>
       </c>
       <c r="FE31">
         <v>0</v>
@@ -30380,7 +30380,7 @@
         <v>2021</v>
       </c>
       <c r="GX31">
-        <v>1.208515355183508</v>
+        <v>1.208488007511434</v>
       </c>
       <c r="GY31">
         <v>0</v>
@@ -30733,7 +30733,7 @@
         <v>1</v>
       </c>
       <c r="AC32">
-        <v>24.75096905242409</v>
+        <v>24.75096904121795</v>
       </c>
       <c r="AD32">
         <v>1</v>
@@ -30913,7 +30913,7 @@
         <v>1</v>
       </c>
       <c r="CK32">
-        <v>70.86200265898427</v>
+        <v>70.86200260718155</v>
       </c>
       <c r="CL32">
         <v>1</v>
@@ -31126,7 +31126,7 @@
         <v>1</v>
       </c>
       <c r="FD32">
-        <v>1.250800638766975</v>
+        <v>1.250800639115369</v>
       </c>
       <c r="FE32">
         <v>0</v>
@@ -31264,7 +31264,7 @@
         <v>2021</v>
       </c>
       <c r="GX32">
-        <v>1.652044777786386</v>
+        <v>1.652044775827079</v>
       </c>
       <c r="GY32">
         <v>0</v>
@@ -31423,13 +31423,13 @@
         <v>1</v>
       </c>
       <c r="IY32">
-        <v>20217765.96210035</v>
+        <v>20217765.96208836</v>
       </c>
       <c r="IZ32" s="2">
         <v>44204</v>
       </c>
       <c r="JA32">
-        <v>23.14184543188934</v>
+        <v>23.14184540212145</v>
       </c>
       <c r="JB32">
         <v>0</v>
@@ -31474,7 +31474,7 @@
         <v>1</v>
       </c>
       <c r="JP32">
-        <v>-405.1567221819323</v>
+        <v>-405.1567229568932</v>
       </c>
       <c r="JQ32">
         <v>0</v>
@@ -31483,7 +31483,7 @@
         <v>0</v>
       </c>
       <c r="JS32">
-        <v>-405.1567221819323</v>
+        <v>-405.1567229568932</v>
       </c>
       <c r="JT32">
         <v>2020</v>
@@ -31827,7 +31827,7 @@
         <v>1</v>
       </c>
       <c r="CU33">
-        <v>1.27207600056331</v>
+        <v>1.272076001824436</v>
       </c>
       <c r="CV33">
         <v>0</v>
@@ -32010,7 +32010,7 @@
         <v>1</v>
       </c>
       <c r="FD33">
-        <v>1.168401834489089</v>
+        <v>1.168407395633722</v>
       </c>
       <c r="FE33">
         <v>0</v>
@@ -32148,7 +32148,7 @@
         <v>2021</v>
       </c>
       <c r="GX33">
-        <v>0.4372101863085618</v>
+        <v>0.4372350441619091</v>
       </c>
       <c r="GY33">
         <v>0</v>
@@ -32289,7 +32289,7 @@
         <v>1998</v>
       </c>
       <c r="IS33">
-        <v>2262.420175172949</v>
+        <v>2262.420169274708</v>
       </c>
       <c r="IT33">
         <v>16.7262</v>
@@ -32307,13 +32307,13 @@
         <v>0</v>
       </c>
       <c r="IY33">
-        <v>20233355.63629331</v>
+        <v>20233355.63626554</v>
       </c>
       <c r="IZ33" s="2">
         <v>44204</v>
       </c>
       <c r="JA33">
-        <v>101.5240017433506</v>
+        <v>101.524001693414</v>
       </c>
       <c r="JB33">
         <v>0</v>
@@ -32480,10 +32480,10 @@
         <v>3</v>
       </c>
       <c r="V34">
-        <v>10438473.06302636</v>
+        <v>10438473.06789266</v>
       </c>
       <c r="W34">
-        <v>17995210.26176605</v>
+        <v>17995210.26763402</v>
       </c>
       <c r="X34">
         <v>1994</v>
@@ -32681,7 +32681,7 @@
         <v>0</v>
       </c>
       <c r="CK34">
-        <v>70.08679889909742</v>
+        <v>70.08679892319681</v>
       </c>
       <c r="CL34">
         <v>1</v>
@@ -32894,7 +32894,7 @@
         <v>0</v>
       </c>
       <c r="FD34">
-        <v>4.283272694972879</v>
+        <v>4.283262397599799</v>
       </c>
       <c r="FE34">
         <v>0</v>
@@ -33032,7 +33032,7 @@
         <v>2021</v>
       </c>
       <c r="GX34">
-        <v>2.22110631667357</v>
+        <v>2.22107206228452</v>
       </c>
       <c r="GY34">
         <v>0</v>
@@ -33565,7 +33565,7 @@
         <v>1</v>
       </c>
       <c r="CK35">
-        <v>69.31763853496614</v>
+        <v>69.31763853686461</v>
       </c>
       <c r="CL35">
         <v>1</v>
@@ -33742,7 +33742,7 @@
         <v>43.43541804648488</v>
       </c>
       <c r="ER35">
-        <v>11.40106094074882</v>
+        <v>11.40106013466534</v>
       </c>
       <c r="ES35">
         <v>1</v>
@@ -34449,7 +34449,7 @@
         <v>0</v>
       </c>
       <c r="CK36">
-        <v>69.31763853496614</v>
+        <v>69.31763853686461</v>
       </c>
       <c r="CL36">
         <v>1</v>
@@ -34626,7 +34626,7 @@
         <v>43.478943575</v>
       </c>
       <c r="ER36">
-        <v>0.2252941978385508</v>
+        <v>0.2252941979036223</v>
       </c>
       <c r="ES36">
         <v>1</v>
@@ -34662,7 +34662,7 @@
         <v>0</v>
       </c>
       <c r="FD36">
-        <v>0.6062113895553694</v>
+        <v>0.6062113888100953</v>
       </c>
       <c r="FE36">
         <v>0</v>
@@ -34800,7 +34800,7 @@
         <v>2021</v>
       </c>
       <c r="GX36">
-        <v>1.137710850922232</v>
+        <v>1.137710851130379</v>
       </c>
       <c r="GY36">
         <v>0</v>
@@ -34959,13 +34959,13 @@
         <v>1</v>
       </c>
       <c r="IY36">
-        <v>20215226.27105019</v>
+        <v>20215226.27102788</v>
       </c>
       <c r="IZ36" s="2">
         <v>44207</v>
       </c>
       <c r="JA36">
-        <v>18.26587504512656</v>
+        <v>18.26587499325424</v>
       </c>
       <c r="JB36">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>43.4807856297891</v>
       </c>
       <c r="ER37">
-        <v>0.1064524229479389</v>
+        <v>0.1064524229756501</v>
       </c>
       <c r="ES37">
         <v>1</v>
@@ -35546,7 +35546,7 @@
         <v>0</v>
       </c>
       <c r="FD37">
-        <v>0.685709890488738</v>
+        <v>0.6857098947261875</v>
       </c>
       <c r="FE37">
         <v>0</v>
@@ -35684,7 +35684,7 @@
         <v>2021</v>
       </c>
       <c r="GX37">
-        <v>0.6417479020396826</v>
+        <v>0.6417479002734012</v>
       </c>
       <c r="GY37">
         <v>0</v>
@@ -35843,13 +35843,13 @@
         <v>1</v>
       </c>
       <c r="IY37">
-        <v>20214385.35740303</v>
+        <v>20214385.35737078</v>
       </c>
       <c r="IZ37" s="2">
         <v>44207</v>
       </c>
       <c r="JA37">
-        <v>18.49417180796942</v>
+        <v>18.49417175385263</v>
       </c>
       <c r="JB37">
         <v>0</v>
@@ -36016,10 +36016,10 @@
         <v>4</v>
       </c>
       <c r="V38">
-        <v>10465979.61323005</v>
+        <v>10465979.6087176</v>
       </c>
       <c r="W38">
-        <v>18315694.1277963</v>
+        <v>18315694.11838617</v>
       </c>
       <c r="X38">
         <v>2018</v>
@@ -36037,7 +36037,7 @@
         <v>1</v>
       </c>
       <c r="AC38">
-        <v>25.88673370026618</v>
+        <v>25.88673369196567</v>
       </c>
       <c r="AD38">
         <v>1</v>
@@ -36217,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="CK38">
-        <v>70.64021466533654</v>
+        <v>70.64021467251089</v>
       </c>
       <c r="CL38">
         <v>1</v>
@@ -36394,7 +36394,7 @@
         <v>43.4287777</v>
       </c>
       <c r="ER38">
-        <v>-11.70399119967477</v>
+        <v>-11.70393621491873</v>
       </c>
       <c r="ES38">
         <v>1</v>
@@ -36430,7 +36430,7 @@
         <v>1</v>
       </c>
       <c r="FD38">
-        <v>5.235352807817037</v>
+        <v>5.235336347934151</v>
       </c>
       <c r="FE38">
         <v>0</v>
@@ -36568,7 +36568,7 @@
         <v>2021</v>
       </c>
       <c r="GX38">
-        <v>0.07723646525271022</v>
+        <v>0.07718173535570827</v>
       </c>
       <c r="GY38">
         <v>0</v>
@@ -37005,7 +37005,7 @@
         <v>1</v>
       </c>
       <c r="BE39">
-        <v>26.07728308947109</v>
+        <v>26.07728308798291</v>
       </c>
       <c r="BF39">
         <v>0</v>
@@ -37278,7 +37278,7 @@
         <v>43.4317858</v>
       </c>
       <c r="ER39">
-        <v>0.1532616321322138</v>
+        <v>0.1532616327800866</v>
       </c>
       <c r="ES39">
         <v>1</v>
@@ -37314,7 +37314,7 @@
         <v>1</v>
       </c>
       <c r="FD39">
-        <v>0.9555649080655826</v>
+        <v>0.9555649089742246</v>
       </c>
       <c r="FE39">
         <v>0</v>
@@ -37452,7 +37452,7 @@
         <v>2021</v>
       </c>
       <c r="GX39">
-        <v>1.127641193477032</v>
+        <v>1.127641194699677</v>
       </c>
       <c r="GY39">
         <v>0</v>
@@ -37611,13 +37611,13 @@
         <v>1</v>
       </c>
       <c r="IY39">
-        <v>20214958.34183065</v>
+        <v>20214958.34180557</v>
       </c>
       <c r="IZ39" s="2">
         <v>44206</v>
       </c>
       <c r="JA39">
-        <v>17.0591572074586</v>
+        <v>17.05915715171468</v>
       </c>
       <c r="JB39">
         <v>0</v>
@@ -37662,7 +37662,7 @@
         <v>1</v>
       </c>
       <c r="JP39">
-        <v>-2174.44326989932</v>
+        <v>-2174.44327282421</v>
       </c>
       <c r="JQ39">
         <v>0</v>
@@ -37671,7 +37671,7 @@
         <v>0</v>
       </c>
       <c r="JS39">
-        <v>-2174.44326989932</v>
+        <v>-2174.44327282421</v>
       </c>
       <c r="JT39">
         <v>2020</v>
@@ -38198,7 +38198,7 @@
         <v>1</v>
       </c>
       <c r="FD40">
-        <v>0.9973686024237054</v>
+        <v>0.9973686003124271</v>
       </c>
       <c r="FE40">
         <v>0</v>
@@ -38336,7 +38336,7 @@
         <v>2021</v>
       </c>
       <c r="GX40">
-        <v>2.338330944943152</v>
+        <v>2.338330943901056</v>
       </c>
       <c r="GY40">
         <v>0</v>
@@ -38477,7 +38477,7 @@
         <v>2012</v>
       </c>
       <c r="IS40">
-        <v>2045.825740120563</v>
+        <v>2045.825738172774</v>
       </c>
       <c r="IT40">
         <v>3.2376</v>
@@ -38546,7 +38546,7 @@
         <v>1</v>
       </c>
       <c r="JP40">
-        <v>-39.70369750012151</v>
+        <v>-39.70369973554716</v>
       </c>
       <c r="JQ40">
         <v>0</v>
@@ -38555,7 +38555,7 @@
         <v>0</v>
       </c>
       <c r="JS40">
-        <v>-39.70369750012151</v>
+        <v>-39.70369973554716</v>
       </c>
       <c r="JT40">
         <v>2020</v>
@@ -38869,7 +38869,7 @@
         <v>0</v>
       </c>
       <c r="CK41">
-        <v>69.31763853496614</v>
+        <v>69.31763853686461</v>
       </c>
       <c r="CL41">
         <v>1</v>
@@ -39046,7 +39046,7 @@
         <v>43.47943166135892</v>
       </c>
       <c r="ER41">
-        <v>11.54416894007564</v>
+        <v>11.54416837485442</v>
       </c>
       <c r="ES41">
         <v>1</v>
@@ -39082,7 +39082,7 @@
         <v>1</v>
       </c>
       <c r="FD41">
-        <v>0.8836947668831954</v>
+        <v>0.8836947704035083</v>
       </c>
       <c r="FE41">
         <v>0</v>
@@ -39220,7 +39220,7 @@
         <v>2021</v>
       </c>
       <c r="GX41">
-        <v>0.7169468299333062</v>
+        <v>0.7169468269676287</v>
       </c>
       <c r="GY41">
         <v>0</v>
@@ -39379,13 +39379,13 @@
         <v>0</v>
       </c>
       <c r="IY41">
-        <v>20216887.4858009</v>
+        <v>20216887.48577021</v>
       </c>
       <c r="IZ41" s="2">
         <v>44207</v>
       </c>
       <c r="JA41">
-        <v>45.05535250947167</v>
+        <v>45.05535245558846</v>
       </c>
       <c r="JB41">
         <v>0</v>
@@ -39753,7 +39753,7 @@
         <v>0</v>
       </c>
       <c r="CK42">
-        <v>68.90357143866095</v>
+        <v>68.90357145669931</v>
       </c>
       <c r="CL42">
         <v>1</v>
@@ -39966,7 +39966,7 @@
         <v>1</v>
       </c>
       <c r="FD42">
-        <v>1.031599971887204</v>
+        <v>1.031598748689362</v>
       </c>
       <c r="FE42">
         <v>0</v>
@@ -40104,7 +40104,7 @@
         <v>2021</v>
       </c>
       <c r="GX42">
-        <v>2.190515289789587</v>
+        <v>2.190515879761094</v>
       </c>
       <c r="GY42">
         <v>0</v>
@@ -40263,13 +40263,13 @@
         <v>1</v>
       </c>
       <c r="IY42">
-        <v>20216798.03609806</v>
+        <v>20216798.03606549</v>
       </c>
       <c r="IZ42" s="2">
         <v>44207</v>
       </c>
       <c r="JA42">
-        <v>24.8136732403801</v>
+        <v>24.81367315168375</v>
       </c>
       <c r="JB42">
         <v>0</v>
@@ -40314,7 +40314,7 @@
         <v>1</v>
       </c>
       <c r="JP42">
-        <v>7486.251620383803</v>
+        <v>7486.251620335753</v>
       </c>
       <c r="JQ42">
         <v>0</v>
@@ -40323,7 +40323,7 @@
         <v>0</v>
       </c>
       <c r="JS42">
-        <v>7486.251620383803</v>
+        <v>7486.251620335753</v>
       </c>
       <c r="JT42">
         <v>2020</v>
@@ -40637,7 +40637,7 @@
         <v>0</v>
       </c>
       <c r="CK43">
-        <v>69.31763853496614</v>
+        <v>69.31763853686461</v>
       </c>
       <c r="CL43">
         <v>1</v>
@@ -40814,7 +40814,7 @@
         <v>43.4167943</v>
       </c>
       <c r="ER43">
-        <v>-13.6706501088649</v>
+        <v>-13.67056619776237</v>
       </c>
       <c r="ES43">
         <v>1</v>
@@ -40850,7 +40850,7 @@
         <v>1</v>
       </c>
       <c r="FD43">
-        <v>1.467834946980076</v>
+        <v>1.467821645006836</v>
       </c>
       <c r="FE43">
         <v>0</v>
@@ -40988,7 +40988,7 @@
         <v>2021</v>
       </c>
       <c r="GX43">
-        <v>1.493994717986951</v>
+        <v>1.493995186762746</v>
       </c>
       <c r="GY43">
         <v>0</v>
@@ -41153,7 +41153,7 @@
         <v>44207</v>
       </c>
       <c r="JA43">
-        <v>19.03688216534673</v>
+        <v>19.03688212766268</v>
       </c>
       <c r="JB43">
         <v>0</v>
@@ -41320,10 +41320,10 @@
         <v>3</v>
       </c>
       <c r="V44">
-        <v>10922087.05900731</v>
+        <v>10922087.07429867</v>
       </c>
       <c r="W44">
-        <v>18708881.34793597</v>
+        <v>18708881.37030787</v>
       </c>
       <c r="X44">
         <v>2006</v>
@@ -41521,7 +41521,7 @@
         <v>1</v>
       </c>
       <c r="CK44">
-        <v>70.00803276132918</v>
+        <v>70.0080327266717</v>
       </c>
       <c r="CL44">
         <v>1</v>
@@ -41734,7 +41734,7 @@
         <v>1</v>
       </c>
       <c r="FD44">
-        <v>3.630829641668754</v>
+        <v>3.630819405058389</v>
       </c>
       <c r="FE44">
         <v>0</v>
@@ -41872,7 +41872,7 @@
         <v>2021</v>
       </c>
       <c r="GX44">
-        <v>1.731851703869069</v>
+        <v>1.731817646558895</v>
       </c>
       <c r="GY44">
         <v>0</v>
@@ -42031,13 +42031,13 @@
         <v>0</v>
       </c>
       <c r="IY44">
-        <v>20227914.15241361</v>
+        <v>20227914.15238433</v>
       </c>
       <c r="IZ44" s="2">
         <v>44207</v>
       </c>
       <c r="JA44">
-        <v>69.99771931253674</v>
+        <v>69.99771929505134</v>
       </c>
       <c r="JB44">
         <v>0</v>
@@ -42204,10 +42204,10 @@
         <v>3</v>
       </c>
       <c r="V45">
-        <v>10971228.63208922</v>
+        <v>10971228.63941774</v>
       </c>
       <c r="W45">
-        <v>18627963.52236599</v>
+        <v>18627963.53145579</v>
       </c>
       <c r="X45">
         <v>1993</v>
@@ -42582,7 +42582,7 @@
         <v>43.4567795</v>
       </c>
       <c r="ER45">
-        <v>0.213901804361285</v>
+        <v>0.2139521050059727</v>
       </c>
       <c r="ES45">
         <v>1</v>
@@ -42618,7 +42618,7 @@
         <v>1</v>
       </c>
       <c r="FD45">
-        <v>4.08130916498834</v>
+        <v>4.081296216738735</v>
       </c>
       <c r="FE45">
         <v>0</v>
@@ -42756,7 +42756,7 @@
         <v>2021</v>
       </c>
       <c r="GX45">
-        <v>1.228707686023256</v>
+        <v>1.228664626384386</v>
       </c>
       <c r="GY45">
         <v>0</v>
@@ -42897,7 +42897,7 @@
         <v>1985</v>
       </c>
       <c r="IS45">
-        <v>2161.579929343883</v>
+        <v>2161.579927525017</v>
       </c>
       <c r="IT45">
         <v>5.684</v>
@@ -42915,13 +42915,13 @@
         <v>0</v>
       </c>
       <c r="IY45">
-        <v>20235568.51698459</v>
+        <v>20235568.51696295</v>
       </c>
       <c r="IZ45" s="2">
         <v>44207</v>
       </c>
       <c r="JA45">
-        <v>115.8284287740026</v>
+        <v>115.8284287183392</v>
       </c>
       <c r="JB45">
         <v>0</v>
@@ -42933,13 +42933,13 @@
         <v>562</v>
       </c>
       <c r="JE45">
-        <v>2983642.316161427</v>
+        <v>2983642.315706964</v>
       </c>
       <c r="JF45">
-        <v>2946103.059928113</v>
+        <v>2946103.05945165</v>
       </c>
       <c r="JG45">
-        <v>2089.672470450103</v>
+        <v>2089.672468125107</v>
       </c>
       <c r="JH45" t="s">
         <v>613</v>
@@ -43289,7 +43289,7 @@
         <v>0</v>
       </c>
       <c r="CK46">
-        <v>70.61312382070855</v>
+        <v>70.61312380916786</v>
       </c>
       <c r="CL46">
         <v>1</v>
@@ -43781,7 +43781,7 @@
         <v>1979</v>
       </c>
       <c r="IS46">
-        <v>1523.710597240257</v>
+        <v>1523.710597970585</v>
       </c>
       <c r="IT46">
         <v>0</v>
@@ -43823,7 +43823,7 @@
         <v>0</v>
       </c>
       <c r="JG46">
-        <v>1548.624623491101</v>
+        <v>1548.62462369608</v>
       </c>
       <c r="JH46" t="s">
         <v>614</v>
@@ -43850,7 +43850,7 @@
         <v>1</v>
       </c>
       <c r="JP46">
-        <v>442.9524257972107</v>
+        <v>442.9524277846347</v>
       </c>
       <c r="JQ46">
         <v>0</v>
@@ -43859,7 +43859,7 @@
         <v>0</v>
       </c>
       <c r="JS46">
-        <v>442.9524257972107</v>
+        <v>442.9524277846347</v>
       </c>
       <c r="JT46">
         <v>2020</v>
@@ -43972,10 +43972,10 @@
         <v>4</v>
       </c>
       <c r="V47">
-        <v>10472704.128447</v>
+        <v>10472704.12217514</v>
       </c>
       <c r="W47">
-        <v>18010925.73482207</v>
+        <v>18010925.72379699</v>
       </c>
       <c r="X47">
         <v>1984</v>
@@ -44386,7 +44386,7 @@
         <v>1</v>
       </c>
       <c r="FD47">
-        <v>4.382420222295366</v>
+        <v>4.382408687162695</v>
       </c>
       <c r="FE47">
         <v>0</v>
@@ -44524,7 +44524,7 @@
         <v>2021</v>
       </c>
       <c r="GX47">
-        <v>1.427167136543872</v>
+        <v>1.427128797272175</v>
       </c>
       <c r="GY47">
         <v>0</v>
@@ -45057,7 +45057,7 @@
         <v>0</v>
       </c>
       <c r="CK48">
-        <v>68.62449466138769</v>
+        <v>68.62449463072824</v>
       </c>
       <c r="CL48">
         <v>1</v>
@@ -45234,7 +45234,7 @@
         <v>43.4790114</v>
       </c>
       <c r="ER48">
-        <v>-12.85826967500688</v>
+        <v>-12.85824436388476</v>
       </c>
       <c r="ES48">
         <v>1</v>
@@ -45270,7 +45270,7 @@
         <v>0</v>
       </c>
       <c r="FD48">
-        <v>1.627202119907338</v>
+        <v>1.627206543559964</v>
       </c>
       <c r="FE48">
         <v>0</v>
@@ -45408,7 +45408,7 @@
         <v>2021</v>
       </c>
       <c r="GX48">
-        <v>1.497001836382552</v>
+        <v>1.497021614503993</v>
       </c>
       <c r="GY48">
         <v>0</v>
@@ -45941,7 +45941,7 @@
         <v>0</v>
       </c>
       <c r="CK49">
-        <v>69.31763853496614</v>
+        <v>69.31763853686461</v>
       </c>
       <c r="CL49">
         <v>1</v>
@@ -46154,7 +46154,7 @@
         <v>1</v>
       </c>
       <c r="FD49">
-        <v>1.065190473060568</v>
+        <v>1.06518949610529</v>
       </c>
       <c r="FE49">
         <v>0</v>
@@ -46292,7 +46292,7 @@
         <v>2021</v>
       </c>
       <c r="GX49">
-        <v>1.992878841964483</v>
+        <v>1.9928793083606</v>
       </c>
       <c r="GY49">
         <v>0</v>
@@ -46433,7 +46433,7 @@
         <v>1995</v>
       </c>
       <c r="IS49">
-        <v>3434.829781070453</v>
+        <v>3434.829779758104</v>
       </c>
       <c r="IT49">
         <v>12.7908</v>
@@ -46475,7 +46475,7 @@
         <v>0</v>
       </c>
       <c r="JG49">
-        <v>3436.072159454758</v>
+        <v>3436.07215892354</v>
       </c>
       <c r="JH49" t="s">
         <v>616</v>
@@ -46502,7 +46502,7 @@
         <v>1</v>
       </c>
       <c r="JP49">
-        <v>5893.82469552701</v>
+        <v>5893.824689376672</v>
       </c>
       <c r="JQ49">
         <v>0</v>
@@ -46511,7 +46511,7 @@
         <v>0</v>
       </c>
       <c r="JS49">
-        <v>5893.82469552701</v>
+        <v>5893.824689376672</v>
       </c>
       <c r="JT49">
         <v>2020</v>
@@ -47508,10 +47508,10 @@
         <v>4</v>
       </c>
       <c r="V51">
-        <v>10015304.67625565</v>
+        <v>10015304.67327004</v>
       </c>
       <c r="W51">
-        <v>17440045.05495788</v>
+        <v>17440045.04784831</v>
       </c>
       <c r="X51">
         <v>2006</v>
@@ -47886,7 +47886,7 @@
         <v>43.4984053</v>
       </c>
       <c r="ER51">
-        <v>9.177208864919265</v>
+        <v>9.177261423749471</v>
       </c>
       <c r="ES51">
         <v>1</v>
@@ -47922,7 +47922,7 @@
         <v>1</v>
       </c>
       <c r="FD51">
-        <v>3.715302615819098</v>
+        <v>3.715292114068632</v>
       </c>
       <c r="FE51">
         <v>0</v>
@@ -48060,7 +48060,7 @@
         <v>2021</v>
       </c>
       <c r="GX51">
-        <v>0.8567831432261954</v>
+        <v>0.8567482191712656</v>
       </c>
       <c r="GY51">
         <v>0</v>
@@ -48392,10 +48392,10 @@
         <v>3</v>
       </c>
       <c r="V52">
-        <v>11130787.30243737</v>
+        <v>11130787.30290019</v>
       </c>
       <c r="W52">
-        <v>19105724.95043118</v>
+        <v>19105724.95094253</v>
       </c>
       <c r="X52">
         <v>2012</v>
@@ -48593,7 +48593,7 @@
         <v>0</v>
       </c>
       <c r="CK52">
-        <v>69.31763853496614</v>
+        <v>69.31763853686461</v>
       </c>
       <c r="CL52">
         <v>1</v>
@@ -48806,7 +48806,7 @@
         <v>1</v>
       </c>
       <c r="FD52">
-        <v>6.613466521719545</v>
+        <v>6.61344969688713</v>
       </c>
       <c r="FE52">
         <v>0</v>
@@ -48944,7 +48944,7 @@
         <v>2021</v>
       </c>
       <c r="GX52">
-        <v>1.366424503412418</v>
+        <v>1.366368563554389</v>
       </c>
       <c r="GY52">
         <v>0</v>
@@ -49085,7 +49085,7 @@
         <v>2012</v>
       </c>
       <c r="IS52">
-        <v>1187.933466356797</v>
+        <v>1187.933466777184</v>
       </c>
       <c r="IT52">
         <v>0</v>
@@ -49103,13 +49103,13 @@
         <v>0</v>
       </c>
       <c r="IY52">
-        <v>20231337.62277415</v>
+        <v>20231337.62274355</v>
       </c>
       <c r="IZ52" s="2">
         <v>44208</v>
       </c>
       <c r="JA52">
-        <v>84.4137690608551</v>
+        <v>84.4137689933855</v>
       </c>
       <c r="JB52">
         <v>0</v>
@@ -49121,13 +49121,13 @@
         <v>562</v>
       </c>
       <c r="JE52">
-        <v>2739513.537170711</v>
+        <v>2739513.537298845</v>
       </c>
       <c r="JF52">
-        <v>2708377.462843574</v>
+        <v>2708377.463187823</v>
       </c>
       <c r="JG52">
-        <v>1183.502434270391</v>
+        <v>1183.502437702809</v>
       </c>
       <c r="JH52" t="s">
         <v>618</v>
@@ -49477,7 +49477,7 @@
         <v>0</v>
       </c>
       <c r="CK53">
-        <v>69.31763853496614</v>
+        <v>69.31763853686461</v>
       </c>
       <c r="CL53">
         <v>1</v>
@@ -50038,7 +50038,7 @@
         <v>1</v>
       </c>
       <c r="JP53">
-        <v>1138.368649627573</v>
+        <v>1138.368649146418</v>
       </c>
       <c r="JQ53">
         <v>0</v>
@@ -50047,7 +50047,7 @@
         <v>0</v>
       </c>
       <c r="JS53">
-        <v>1138.368649627573</v>
+        <v>1138.368649146418</v>
       </c>
       <c r="JT53">
         <v>2020</v>
@@ -50361,7 +50361,7 @@
         <v>1</v>
       </c>
       <c r="CK54">
-        <v>69.21802178949733</v>
+        <v>69.21802182443631</v>
       </c>
       <c r="CL54">
         <v>1</v>
@@ -50574,7 +50574,7 @@
         <v>1</v>
       </c>
       <c r="FD54">
-        <v>0.8217500791851649</v>
+        <v>0.8217496405262068</v>
       </c>
       <c r="FE54">
         <v>0</v>
@@ -50712,7 +50712,7 @@
         <v>2021</v>
       </c>
       <c r="GX54">
-        <v>1.297814522200753</v>
+        <v>1.297814735107835</v>
       </c>
       <c r="GY54">
         <v>0</v>
@@ -50853,7 +50853,7 @@
         <v>2006</v>
       </c>
       <c r="IS54">
-        <v>1870.816012361203</v>
+        <v>1870.816014526128</v>
       </c>
       <c r="IT54">
         <v>6.2491</v>
@@ -50895,7 +50895,7 @@
         <v>0</v>
       </c>
       <c r="JG54">
-        <v>1878.095110165661</v>
+        <v>1878.095113557356</v>
       </c>
       <c r="JH54" t="s">
         <v>619</v>
@@ -50922,7 +50922,7 @@
         <v>1</v>
       </c>
       <c r="JP54">
-        <v>1979.99866381912</v>
+        <v>1979.998668233161</v>
       </c>
       <c r="JQ54">
         <v>0</v>
@@ -50931,7 +50931,7 @@
         <v>0</v>
       </c>
       <c r="JS54">
-        <v>1979.99866381912</v>
+        <v>1979.998668233161</v>
       </c>
       <c r="JT54">
         <v>2020</v>
@@ -51245,7 +51245,7 @@
         <v>1</v>
       </c>
       <c r="CK55">
-        <v>69.68081233815523</v>
+        <v>69.68081231160659</v>
       </c>
       <c r="CL55">
         <v>1</v>
@@ -51458,7 +51458,7 @@
         <v>1</v>
       </c>
       <c r="FD55">
-        <v>0.9624189231438436</v>
+        <v>0.9624189241374097</v>
       </c>
       <c r="FE55">
         <v>0</v>
@@ -51596,7 +51596,7 @@
         <v>2021</v>
       </c>
       <c r="GX55">
-        <v>2.104361381690197</v>
+        <v>2.104361379474639</v>
       </c>
       <c r="GY55">
         <v>0</v>
@@ -51737,7 +51737,7 @@
         <v>1996</v>
       </c>
       <c r="IS55">
-        <v>1539.855251014109</v>
+        <v>1539.855250155069</v>
       </c>
       <c r="IT55">
         <v>0</v>
@@ -51779,7 +51779,7 @@
         <v>0</v>
       </c>
       <c r="JG55">
-        <v>1549.136193863436</v>
+        <v>1549.136192912425</v>
       </c>
       <c r="JH55" t="s">
         <v>620</v>
@@ -51806,7 +51806,7 @@
         <v>1</v>
       </c>
       <c r="JP55">
-        <v>-2313.879802911203</v>
+        <v>-2313.879801863222</v>
       </c>
       <c r="JQ55">
         <v>0</v>
@@ -51815,7 +51815,7 @@
         <v>0</v>
       </c>
       <c r="JS55">
-        <v>-2313.879802911203</v>
+        <v>-2313.879801863222</v>
       </c>
       <c r="JT55">
         <v>2020</v>
@@ -52066,7 +52066,7 @@
         <v>0</v>
       </c>
       <c r="BP56">
-        <v>1.424257418240832</v>
+        <v>1.424257416323789</v>
       </c>
       <c r="BQ56">
         <v>1</v>
@@ -52129,7 +52129,7 @@
         <v>1</v>
       </c>
       <c r="CK56">
-        <v>69.31763853496614</v>
+        <v>69.31763853686461</v>
       </c>
       <c r="CL56">
         <v>1</v>
@@ -52306,7 +52306,7 @@
         <v>43.4806852</v>
       </c>
       <c r="ER56">
-        <v>0.2542670590168257</v>
+        <v>0.2542670590488427</v>
       </c>
       <c r="ES56">
         <v>1</v>
@@ -52342,7 +52342,7 @@
         <v>1</v>
       </c>
       <c r="FD56">
-        <v>0.5884761583453724</v>
+        <v>0.588476157686614</v>
       </c>
       <c r="FE56">
         <v>0</v>
@@ -52480,7 +52480,7 @@
         <v>2021</v>
       </c>
       <c r="GX56">
-        <v>1.193861313312922</v>
+        <v>1.193861313742744</v>
       </c>
       <c r="GY56">
         <v>0</v>
@@ -52639,13 +52639,13 @@
         <v>1</v>
       </c>
       <c r="IY56">
-        <v>20215408.41711478</v>
+        <v>20215408.41709154</v>
       </c>
       <c r="IZ56" s="2">
         <v>44208</v>
       </c>
       <c r="JA56">
-        <v>19.31114880913726</v>
+        <v>19.31114876381151</v>
       </c>
       <c r="JB56">
         <v>0</v>
@@ -52833,7 +52833,7 @@
         <v>0</v>
       </c>
       <c r="AC57">
-        <v>21.00576001346024</v>
+        <v>21.00576000114529</v>
       </c>
       <c r="AD57">
         <v>1</v>
@@ -52917,7 +52917,7 @@
         <v>1</v>
       </c>
       <c r="BE57">
-        <v>27.22224674209886</v>
+        <v>27.22224674052103</v>
       </c>
       <c r="BF57">
         <v>0</v>
@@ -53013,7 +53013,7 @@
         <v>0</v>
       </c>
       <c r="CK57">
-        <v>69.31763853496614</v>
+        <v>69.31763853686461</v>
       </c>
       <c r="CL57">
         <v>1</v>
@@ -53190,7 +53190,7 @@
         <v>43.44857470163221</v>
       </c>
       <c r="ER57">
-        <v>0.1843492668512425</v>
+        <v>0.1843492668258477</v>
       </c>
       <c r="ES57">
         <v>1</v>
@@ -53226,7 +53226,7 @@
         <v>1</v>
       </c>
       <c r="FD57">
-        <v>0.9728513641442191</v>
+        <v>0.9728513688181692</v>
       </c>
       <c r="FE57">
         <v>0</v>
@@ -53364,7 +53364,7 @@
         <v>2021</v>
       </c>
       <c r="GX57">
-        <v>0.8241346319216234</v>
+        <v>0.8241346310430799</v>
       </c>
       <c r="GY57">
         <v>0</v>
@@ -53523,13 +53523,13 @@
         <v>1</v>
       </c>
       <c r="IY57">
-        <v>20213407.72593835</v>
+        <v>20213407.72590709</v>
       </c>
       <c r="IZ57" s="2">
         <v>44208</v>
       </c>
       <c r="JA57">
-        <v>17.64224242208425</v>
+        <v>17.64224237272989</v>
       </c>
       <c r="JB57">
         <v>0</v>
@@ -53574,7 +53574,7 @@
         <v>1</v>
       </c>
       <c r="JP57">
-        <v>-971.4175984888498</v>
+        <v>-971.4175994324069</v>
       </c>
       <c r="JQ57">
         <v>0</v>
@@ -53583,7 +53583,7 @@
         <v>0</v>
       </c>
       <c r="JS57">
-        <v>-971.4175984888498</v>
+        <v>-971.4175994324069</v>
       </c>
       <c r="JT57">
         <v>2020</v>
@@ -53717,7 +53717,7 @@
         <v>0</v>
       </c>
       <c r="AC58">
-        <v>20.39006017893879</v>
+        <v>20.39006016540693</v>
       </c>
       <c r="AD58">
         <v>1</v>
@@ -54074,7 +54074,7 @@
         <v>43.43469709673425</v>
       </c>
       <c r="ER58">
-        <v>0.08139272339528247</v>
+        <v>0.0813927234195404</v>
       </c>
       <c r="ES58">
         <v>1</v>
@@ -54110,7 +54110,7 @@
         <v>1</v>
       </c>
       <c r="FD58">
-        <v>0.6913825198480481</v>
+        <v>0.6913825239050766</v>
       </c>
       <c r="FE58">
         <v>0</v>
@@ -54248,7 +54248,7 @@
         <v>2021</v>
       </c>
       <c r="GX58">
-        <v>0.993949690466394</v>
+        <v>0.9939496889816866</v>
       </c>
       <c r="GY58">
         <v>0</v>
@@ -54407,13 +54407,13 @@
         <v>1</v>
       </c>
       <c r="IY58">
-        <v>20214609.55160321</v>
+        <v>20214609.55157186</v>
       </c>
       <c r="IZ58" s="2">
         <v>44208</v>
       </c>
       <c r="JA58">
-        <v>17.54799095849487</v>
+        <v>17.54799090508108</v>
       </c>
       <c r="JB58">
         <v>0</v>
@@ -54781,7 +54781,7 @@
         <v>0</v>
       </c>
       <c r="CK59">
-        <v>69.20898720135787</v>
+        <v>69.20898716384008</v>
       </c>
       <c r="CL59">
         <v>1</v>
@@ -55342,7 +55342,7 @@
         <v>1</v>
       </c>
       <c r="JP59">
-        <v>41.64446974120938</v>
+        <v>41.64447069615426</v>
       </c>
       <c r="JQ59">
         <v>0</v>
@@ -55351,7 +55351,7 @@
         <v>0</v>
       </c>
       <c r="JS59">
-        <v>41.64446974120938</v>
+        <v>41.64447069615426</v>
       </c>
       <c r="JT59">
         <v>2020</v>
@@ -55485,7 +55485,7 @@
         <v>0</v>
       </c>
       <c r="AC60">
-        <v>20.20736036983496</v>
+        <v>20.20736036290674</v>
       </c>
       <c r="AD60">
         <v>1</v>
@@ -55842,7 +55842,7 @@
         <v>43.47794410583216</v>
       </c>
       <c r="ER60">
-        <v>0.1142135888473348</v>
+        <v>0.1142135888393625</v>
       </c>
       <c r="ES60">
         <v>1</v>
@@ -55878,7 +55878,7 @@
         <v>0</v>
       </c>
       <c r="FD60">
-        <v>0.7438936032464198</v>
+        <v>0.7438936071881699</v>
       </c>
       <c r="FE60">
         <v>0</v>
@@ -56016,7 +56016,7 @@
         <v>2021</v>
       </c>
       <c r="GX60">
-        <v>0.7238840264120938</v>
+        <v>0.7238840248298857</v>
       </c>
       <c r="GY60">
         <v>0</v>
@@ -56175,13 +56175,13 @@
         <v>1</v>
       </c>
       <c r="IY60">
-        <v>20215118.78064521</v>
+        <v>20215118.78061286</v>
       </c>
       <c r="IZ60" s="2">
         <v>44209</v>
       </c>
       <c r="JA60">
-        <v>22.06757795081031</v>
+        <v>22.06757790081483</v>
       </c>
       <c r="JB60">
         <v>0</v>
@@ -56453,7 +56453,7 @@
         <v>1</v>
       </c>
       <c r="BE61">
-        <v>26.97141537130186</v>
+        <v>26.97141536798475</v>
       </c>
       <c r="BF61">
         <v>0</v>
@@ -56486,7 +56486,7 @@
         <v>0</v>
       </c>
       <c r="BP61">
-        <v>1.552085171805393</v>
+        <v>1.55208516946656</v>
       </c>
       <c r="BQ61">
         <v>1</v>
@@ -56726,7 +56726,7 @@
         <v>43.4888744</v>
       </c>
       <c r="ER61">
-        <v>0.265857333825096</v>
+        <v>0.2658573344795627</v>
       </c>
       <c r="ES61">
         <v>1</v>
@@ -56762,7 +56762,7 @@
         <v>0</v>
       </c>
       <c r="FD61">
-        <v>0.1102588136096188</v>
+        <v>0.1102588104932352</v>
       </c>
       <c r="FE61">
         <v>0</v>
@@ -56900,7 +56900,7 @@
         <v>2021</v>
       </c>
       <c r="GX61">
-        <v>1.394124146058132</v>
+        <v>1.394124143745728</v>
       </c>
       <c r="GY61">
         <v>0</v>
@@ -57041,7 +57041,7 @@
         <v>1997</v>
       </c>
       <c r="IS61">
-        <v>2600.025817042653</v>
+        <v>2600.025816543595</v>
       </c>
       <c r="IT61">
         <v>0</v>
@@ -57059,13 +57059,13 @@
         <v>1</v>
       </c>
       <c r="IY61">
-        <v>20217607.22812108</v>
+        <v>20217607.2280279</v>
       </c>
       <c r="IZ61" s="2">
         <v>44209</v>
       </c>
       <c r="JA61">
-        <v>35.74989605963569</v>
+        <v>35.74989580650722</v>
       </c>
       <c r="JB61">
         <v>0</v>
@@ -57994,7 +57994,7 @@
         <v>1</v>
       </c>
       <c r="JP62">
-        <v>1831.67553393334</v>
+        <v>1831.675531246494</v>
       </c>
       <c r="JQ62">
         <v>0</v>
@@ -58003,7 +58003,7 @@
         <v>0</v>
       </c>
       <c r="JS62">
-        <v>1831.67553393334</v>
+        <v>1831.675531246494</v>
       </c>
       <c r="JT62">
         <v>2020</v>
@@ -58137,7 +58137,7 @@
         <v>0</v>
       </c>
       <c r="AC63">
-        <v>22.54523134716928</v>
+        <v>22.5452313411778</v>
       </c>
       <c r="AD63">
         <v>1</v>
@@ -58530,7 +58530,7 @@
         <v>1</v>
       </c>
       <c r="FD63">
-        <v>0.575292877690174</v>
+        <v>0.5752928761240241</v>
       </c>
       <c r="FE63">
         <v>0</v>
@@ -58668,7 +58668,7 @@
         <v>2021</v>
       </c>
       <c r="GX63">
-        <v>0.8821710335327992</v>
+        <v>0.8821710332964159</v>
       </c>
       <c r="GY63">
         <v>0</v>
@@ -58878,7 +58878,7 @@
         <v>1</v>
       </c>
       <c r="JP63">
-        <v>961.59922271851</v>
+        <v>961.5992193458865</v>
       </c>
       <c r="JQ63">
         <v>0</v>
@@ -58887,7 +58887,7 @@
         <v>0</v>
       </c>
       <c r="JS63">
-        <v>961.59922271851</v>
+        <v>961.5992193458865</v>
       </c>
       <c r="JT63">
         <v>2020</v>
@@ -59000,10 +59000,10 @@
         <v>4</v>
       </c>
       <c r="V64">
-        <v>10298664.54203374</v>
+        <v>10298664.53372226</v>
       </c>
       <c r="W64">
-        <v>17783068.89024459</v>
+        <v>17783068.87830018</v>
       </c>
       <c r="X64">
         <v>1998</v>
@@ -59021,7 +59021,7 @@
         <v>1</v>
       </c>
       <c r="AC64">
-        <v>26.205542701646</v>
+        <v>26.20554270278297</v>
       </c>
       <c r="AD64">
         <v>1</v>
@@ -59378,7 +59378,7 @@
         <v>43.4778368</v>
       </c>
       <c r="ER64">
-        <v>19.26407951489089</v>
+        <v>19.26412800148555</v>
       </c>
       <c r="ES64">
         <v>1</v>
@@ -59414,7 +59414,7 @@
         <v>1</v>
       </c>
       <c r="FD64">
-        <v>2.922216775550282</v>
+        <v>2.922208546119748</v>
       </c>
       <c r="FE64">
         <v>0</v>
@@ -59552,7 +59552,7 @@
         <v>2021</v>
       </c>
       <c r="GX64">
-        <v>0.9241834709007151</v>
+        <v>0.9241561238835061</v>
       </c>
       <c r="GY64">
         <v>0</v>
@@ -60085,7 +60085,7 @@
         <v>1</v>
       </c>
       <c r="CK65">
-        <v>68.78422108425073</v>
+        <v>68.78422102225584</v>
       </c>
       <c r="CL65">
         <v>1</v>
@@ -60262,7 +60262,7 @@
         <v>43.4860978</v>
       </c>
       <c r="ER65">
-        <v>-10.97888591015426</v>
+        <v>-10.97886028978087</v>
       </c>
       <c r="ES65">
         <v>1</v>
@@ -60298,7 +60298,7 @@
         <v>1</v>
       </c>
       <c r="FD65">
-        <v>1.622549478577014</v>
+        <v>1.622554069288924</v>
       </c>
       <c r="FE65">
         <v>0</v>
@@ -60436,7 +60436,7 @@
         <v>2021</v>
       </c>
       <c r="GX65">
-        <v>1.430780100935181</v>
+        <v>1.430800629082199</v>
       </c>
       <c r="GY65">
         <v>0</v>
@@ -60595,13 +60595,13 @@
         <v>0</v>
       </c>
       <c r="IY65">
-        <v>20224720.46403256</v>
+        <v>20224720.46400941</v>
       </c>
       <c r="IZ65" s="2">
         <v>44209</v>
       </c>
       <c r="JA65">
-        <v>65.19469393927103</v>
+        <v>65.19469390456855</v>
       </c>
       <c r="JB65">
         <v>0</v>
@@ -61182,7 +61182,7 @@
         <v>0</v>
       </c>
       <c r="FD66">
-        <v>0.9733009090117548</v>
+        <v>0.9733009117203437</v>
       </c>
       <c r="FE66">
         <v>0</v>
@@ -61320,7 +61320,7 @@
         <v>2021</v>
       </c>
       <c r="GX66">
-        <v>1.742627962856133</v>
+        <v>1.742627962634415</v>
       </c>
       <c r="GY66">
         <v>0</v>
@@ -61461,7 +61461,7 @@
         <v>2009</v>
       </c>
       <c r="IS66">
-        <v>1208.833706666304</v>
+        <v>1208.833706651341</v>
       </c>
       <c r="IT66">
         <v>26.532</v>
@@ -61503,7 +61503,7 @@
         <v>0</v>
       </c>
       <c r="JG66">
-        <v>1228.876776268575</v>
+        <v>1228.876778094396</v>
       </c>
       <c r="JH66" t="s">
         <v>627</v>
@@ -61530,7 +61530,7 @@
         <v>1</v>
       </c>
       <c r="JP66">
-        <v>-671.8502705860828</v>
+        <v>-671.850270770326</v>
       </c>
       <c r="JQ66">
         <v>0</v>
@@ -61539,7 +61539,7 @@
         <v>0</v>
       </c>
       <c r="JS66">
-        <v>-671.8502705860828</v>
+        <v>-671.850270770326</v>
       </c>
       <c r="JT66">
         <v>2020</v>
@@ -61853,7 +61853,7 @@
         <v>0</v>
       </c>
       <c r="CK67">
-        <v>69.31763853496614</v>
+        <v>69.31763853686461</v>
       </c>
       <c r="CL67">
         <v>1</v>
@@ -62030,7 +62030,7 @@
         <v>43.4278392</v>
       </c>
       <c r="ER67">
-        <v>7.463884529731388</v>
+        <v>7.463884126948358</v>
       </c>
       <c r="ES67">
         <v>1</v>
@@ -62536,10 +62536,10 @@
         <v>3</v>
       </c>
       <c r="V68">
-        <v>11149969.09173736</v>
+        <v>11149969.10020881</v>
       </c>
       <c r="W68">
-        <v>19038138.37405784</v>
+        <v>19038138.38688774</v>
       </c>
       <c r="X68">
         <v>2016</v>
@@ -62737,7 +62737,7 @@
         <v>1</v>
       </c>
       <c r="CK68">
-        <v>70.15136493714027</v>
+        <v>70.15136492025266</v>
       </c>
       <c r="CL68">
         <v>1</v>
@@ -62950,7 +62950,7 @@
         <v>0</v>
       </c>
       <c r="FD68">
-        <v>3.662140824321057</v>
+        <v>3.662130584456463</v>
       </c>
       <c r="FE68">
         <v>0</v>
@@ -63088,7 +63088,7 @@
         <v>2021</v>
       </c>
       <c r="GX68">
-        <v>1.23468832844469</v>
+        <v>1.234654271419586</v>
       </c>
       <c r="GY68">
         <v>0</v>
@@ -63621,7 +63621,7 @@
         <v>0</v>
       </c>
       <c r="CK69">
-        <v>69.64939131318555</v>
+        <v>69.64939132486778</v>
       </c>
       <c r="CL69">
         <v>1</v>
@@ -63834,7 +63834,7 @@
         <v>0</v>
       </c>
       <c r="FD69">
-        <v>2.395239186323181</v>
+        <v>2.395245527398401</v>
       </c>
       <c r="FE69">
         <v>0</v>
@@ -63972,7 +63972,7 @@
         <v>2021</v>
       </c>
       <c r="GX69">
-        <v>1.225379231865006</v>
+        <v>1.225407577659752</v>
       </c>
       <c r="GY69">
         <v>0</v>
@@ -64113,7 +64113,7 @@
         <v>2017</v>
       </c>
       <c r="IS69">
-        <v>1633.861044024165</v>
+        <v>1633.861043456145</v>
       </c>
       <c r="IT69">
         <v>0</v>
@@ -64131,13 +64131,13 @@
         <v>0</v>
       </c>
       <c r="IY69">
-        <v>20224208.81432319</v>
+        <v>20224208.81431113</v>
       </c>
       <c r="IZ69" s="2">
         <v>44209</v>
       </c>
       <c r="JA69">
-        <v>57.11161120463274</v>
+        <v>57.11161115805139</v>
       </c>
       <c r="JB69">
         <v>0</v>
@@ -64149,13 +64149,13 @@
         <v>562</v>
       </c>
       <c r="JE69">
-        <v>1849032.003564187</v>
+        <v>1849032.004578561</v>
       </c>
       <c r="JF69">
-        <v>1837936.841170504</v>
+        <v>1837936.842504027</v>
       </c>
       <c r="JG69">
-        <v>1559.444966860014</v>
+        <v>1559.444966309813</v>
       </c>
       <c r="JH69" t="s">
         <v>629</v>
@@ -64505,7 +64505,7 @@
         <v>0</v>
       </c>
       <c r="CK70">
-        <v>69.31763853496614</v>
+        <v>69.31763853686461</v>
       </c>
       <c r="CL70">
         <v>1</v>
@@ -64718,7 +64718,7 @@
         <v>0</v>
       </c>
       <c r="FD70">
-        <v>1.221409083656738</v>
+        <v>1.221414644473839</v>
       </c>
       <c r="FE70">
         <v>0</v>
@@ -64856,7 +64856,7 @@
         <v>2021</v>
       </c>
       <c r="GX70">
-        <v>0.5798967374201709</v>
+        <v>0.5799215948755858</v>
       </c>
       <c r="GY70">
         <v>0</v>
@@ -65015,13 +65015,13 @@
         <v>0</v>
       </c>
       <c r="IY70">
-        <v>20233255.03575818</v>
+        <v>20233255.03573239</v>
       </c>
       <c r="IZ70" s="2">
         <v>44209</v>
       </c>
       <c r="JA70">
-        <v>100.1403982367751</v>
+        <v>100.1403981862457</v>
       </c>
       <c r="JB70">
         <v>0</v>
@@ -65389,7 +65389,7 @@
         <v>1</v>
       </c>
       <c r="CK71">
-        <v>70.07099742689519</v>
+        <v>70.07099750517715</v>
       </c>
       <c r="CL71">
         <v>1</v>
@@ -65602,7 +65602,7 @@
         <v>0</v>
       </c>
       <c r="FD71">
-        <v>0.9862654093746528</v>
+        <v>0.9862654090165961</v>
       </c>
       <c r="FE71">
         <v>0</v>
@@ -65740,7 +65740,7 @@
         <v>2021</v>
       </c>
       <c r="GX71">
-        <v>1.902540345010408</v>
+        <v>1.902540343837572</v>
       </c>
       <c r="GY71">
         <v>0</v>
@@ -65881,7 +65881,7 @@
         <v>2018</v>
       </c>
       <c r="IS71">
-        <v>2755.555397380791</v>
+        <v>2755.555400653335</v>
       </c>
       <c r="IT71">
         <v>0</v>
@@ -65899,13 +65899,13 @@
         <v>1</v>
       </c>
       <c r="IY71">
-        <v>20218035.08252522</v>
+        <v>20218035.08252685</v>
       </c>
       <c r="IZ71" s="2">
         <v>44209</v>
       </c>
       <c r="JA71">
-        <v>20.7608445625546</v>
+        <v>20.76084451536024</v>
       </c>
       <c r="JB71">
         <v>0</v>
@@ -65923,7 +65923,7 @@
         <v>0</v>
       </c>
       <c r="JG71">
-        <v>2768.92238087186</v>
+        <v>2768.922382085279</v>
       </c>
       <c r="JH71" t="s">
         <v>630</v>
@@ -65950,7 +65950,7 @@
         <v>1</v>
       </c>
       <c r="JP71">
-        <v>245.0103001268487</v>
+        <v>245.0103008941783</v>
       </c>
       <c r="JQ71">
         <v>0</v>
@@ -65959,7 +65959,7 @@
         <v>0</v>
       </c>
       <c r="JS71">
-        <v>245.0103001268487</v>
+        <v>245.0103008941783</v>
       </c>
       <c r="JT71">
         <v>2020</v>
@@ -66072,10 +66072,10 @@
         <v>4</v>
       </c>
       <c r="V72">
-        <v>10366643.08257944</v>
+        <v>10366643.09045031</v>
       </c>
       <c r="W72">
-        <v>17728655.49080145</v>
+        <v>17728655.50037125</v>
       </c>
       <c r="X72">
         <v>2019</v>
@@ -66210,7 +66210,7 @@
         <v>0</v>
       </c>
       <c r="BP72">
-        <v>1.731459164956949</v>
+        <v>1.731459162342956</v>
       </c>
       <c r="BQ72">
         <v>1</v>
@@ -66273,7 +66273,7 @@
         <v>1</v>
       </c>
       <c r="CK72">
-        <v>69.31763853496614</v>
+        <v>69.31763853686461</v>
       </c>
       <c r="CL72">
         <v>1</v>
@@ -66486,7 +66486,7 @@
         <v>0</v>
       </c>
       <c r="FD72">
-        <v>3.515209623892702</v>
+        <v>3.515199997410605</v>
       </c>
       <c r="FE72">
         <v>0</v>
@@ -66624,7 +66624,7 @@
         <v>2021</v>
       </c>
       <c r="GX72">
-        <v>1.87103703326882</v>
+        <v>1.871005015702195</v>
       </c>
       <c r="GY72">
         <v>0</v>
@@ -66765,7 +66765,7 @@
         <v>2019</v>
       </c>
       <c r="IS72">
-        <v>2953.220973593794</v>
+        <v>2953.220967054214</v>
       </c>
       <c r="IT72">
         <v>5.9778</v>
@@ -66783,13 +66783,13 @@
         <v>0</v>
       </c>
       <c r="IY72">
-        <v>20232863.14994708</v>
+        <v>20232863.14991587</v>
       </c>
       <c r="IZ72" s="2">
         <v>44209</v>
       </c>
       <c r="JA72">
-        <v>99.25340801052452</v>
+        <v>99.25340794784213</v>
       </c>
       <c r="JB72">
         <v>0</v>
@@ -66801,13 +66801,13 @@
         <v>562</v>
       </c>
       <c r="JE72">
-        <v>3565730.792032231</v>
+        <v>3565730.791631456</v>
       </c>
       <c r="JF72">
-        <v>3507809.277673212</v>
+        <v>3507809.277127995</v>
       </c>
       <c r="JG72">
-        <v>2891.948390741461</v>
+        <v>2891.948390163263</v>
       </c>
       <c r="JH72" t="s">
         <v>631</v>
@@ -67157,7 +67157,7 @@
         <v>0</v>
       </c>
       <c r="CK73">
-        <v>69.66342111152575</v>
+        <v>69.66342109697948</v>
       </c>
       <c r="CL73">
         <v>1</v>
@@ -67718,7 +67718,7 @@
         <v>1</v>
       </c>
       <c r="JP73">
-        <v>254.0750242313497</v>
+        <v>254.0750216648773</v>
       </c>
       <c r="JQ73">
         <v>0</v>
@@ -67727,7 +67727,7 @@
         <v>0</v>
       </c>
       <c r="JS73">
-        <v>254.0750242313497</v>
+        <v>254.0750216648773</v>
       </c>
       <c r="JT73">
         <v>2020</v>
@@ -67978,7 +67978,7 @@
         <v>0</v>
       </c>
       <c r="BP74">
-        <v>1.400839444938826</v>
+        <v>1.400839445080417</v>
       </c>
       <c r="BQ74">
         <v>1</v>
@@ -68041,7 +68041,7 @@
         <v>0</v>
       </c>
       <c r="CK74">
-        <v>69.31763853496614</v>
+        <v>69.31763853686461</v>
       </c>
       <c r="CL74">
         <v>1</v>
@@ -68254,7 +68254,7 @@
         <v>0</v>
       </c>
       <c r="FD74">
-        <v>1.434700674578664</v>
+        <v>1.434699385549152</v>
       </c>
       <c r="FE74">
         <v>0</v>
@@ -68392,7 +68392,7 @@
         <v>2021</v>
       </c>
       <c r="GX74">
-        <v>2.761039516445635</v>
+        <v>2.761040132466022</v>
       </c>
       <c r="GY74">
         <v>0</v>
@@ -68602,7 +68602,7 @@
         <v>1</v>
       </c>
       <c r="JP74">
-        <v>7052.181904777312</v>
+        <v>7052.18190332879</v>
       </c>
       <c r="JQ74">
         <v>0</v>
@@ -68611,7 +68611,7 @@
         <v>0</v>
       </c>
       <c r="JS74">
-        <v>7052.181904777312</v>
+        <v>7052.18190332879</v>
       </c>
       <c r="JT74">
         <v>2021</v>
@@ -68925,7 +68925,7 @@
         <v>0</v>
       </c>
       <c r="CK75">
-        <v>69.31763853496614</v>
+        <v>69.31763853686461</v>
       </c>
       <c r="CL75">
         <v>1</v>
@@ -69102,7 +69102,7 @@
         <v>43.4445521</v>
       </c>
       <c r="ER75">
-        <v>0.1469822251456918</v>
+        <v>0.1469822251497561</v>
       </c>
       <c r="ES75">
         <v>1</v>
@@ -69138,7 +69138,7 @@
         <v>0</v>
       </c>
       <c r="FD75">
-        <v>1.20209767804937</v>
+        <v>1.202096711399236</v>
       </c>
       <c r="FE75">
         <v>0</v>
@@ -69276,7 +69276,7 @@
         <v>2021</v>
       </c>
       <c r="GX75">
-        <v>1.119565761301544</v>
+        <v>1.11956622886602</v>
       </c>
       <c r="GY75">
         <v>0</v>
@@ -69435,13 +69435,13 @@
         <v>1</v>
       </c>
       <c r="IY75">
-        <v>20212596.72918647</v>
+        <v>20212596.72915768</v>
       </c>
       <c r="IZ75" s="2">
         <v>44211</v>
       </c>
       <c r="JA75">
-        <v>18.06907273844088</v>
+        <v>18.0690726967355</v>
       </c>
       <c r="JB75">
         <v>0</v>
@@ -69608,10 +69608,10 @@
         <v>3</v>
       </c>
       <c r="V76">
-        <v>13874885.63874256</v>
+        <v>13874885.6503919</v>
       </c>
       <c r="W76">
-        <v>23237764.78620964</v>
+        <v>23237764.80231106</v>
       </c>
       <c r="X76">
         <v>2001</v>
@@ -69809,7 +69809,7 @@
         <v>0</v>
       </c>
       <c r="CK76">
-        <v>70.13309480543892</v>
+        <v>70.13309478680875</v>
       </c>
       <c r="CL76">
         <v>1</v>
@@ -69986,7 +69986,7 @@
         <v>43.4185796</v>
       </c>
       <c r="ER76">
-        <v>18.40288451207881</v>
+        <v>18.40293712560327</v>
       </c>
       <c r="ES76">
         <v>1</v>
@@ -70022,7 +70022,7 @@
         <v>0</v>
       </c>
       <c r="FD76">
-        <v>4.536895005726308</v>
+        <v>4.536883578638367</v>
       </c>
       <c r="FE76">
         <v>0</v>
@@ -70160,7 +70160,7 @@
         <v>2021</v>
       </c>
       <c r="GX76">
-        <v>1.261950656583224</v>
+        <v>1.261912651380342</v>
       </c>
       <c r="GY76">
         <v>0</v>
@@ -70301,7 +70301,7 @@
         <v>2015</v>
       </c>
       <c r="IS76">
-        <v>1378.451869521683</v>
+        <v>1378.451864748091</v>
       </c>
       <c r="IT76">
         <v>14</v>
@@ -70337,13 +70337,13 @@
         <v>562</v>
       </c>
       <c r="JE76">
-        <v>2621128.002150063</v>
+        <v>2621128.001403186</v>
       </c>
       <c r="JF76">
-        <v>2589530.098433539</v>
+        <v>2589530.097845042</v>
       </c>
       <c r="JG76">
-        <v>1237.895731488992</v>
+        <v>1237.895732714169</v>
       </c>
       <c r="JH76" t="s">
         <v>633</v>
@@ -70906,7 +70906,7 @@
         <v>0</v>
       </c>
       <c r="FD77">
-        <v>0.5250391261584468</v>
+        <v>0.5250391229701563</v>
       </c>
       <c r="FE77">
         <v>0</v>
@@ -71044,7 +71044,7 @@
         <v>2021</v>
       </c>
       <c r="GX77">
-        <v>1.067239842927336</v>
+        <v>1.067239842395594</v>
       </c>
       <c r="GY77">
         <v>0</v>
@@ -71185,7 +71185,7 @@
         <v>2014</v>
       </c>
       <c r="IS77">
-        <v>1736.321620605435</v>
+        <v>1736.321622234478</v>
       </c>
       <c r="IT77">
         <v>0</v>
@@ -71227,7 +71227,7 @@
         <v>0</v>
       </c>
       <c r="JG77">
-        <v>1726.493633993021</v>
+        <v>1726.493633816914</v>
       </c>
       <c r="JH77" t="s">
         <v>634</v>
@@ -71254,7 +71254,7 @@
         <v>1</v>
       </c>
       <c r="JP77">
-        <v>-1601.308105570367</v>
+        <v>-1601.308108818017</v>
       </c>
       <c r="JQ77">
         <v>0</v>
@@ -71263,7 +71263,7 @@
         <v>0</v>
       </c>
       <c r="JS77">
-        <v>-1601.308105570367</v>
+        <v>-1601.308108818017</v>
       </c>
       <c r="JT77">
         <v>2020</v>
@@ -71397,7 +71397,7 @@
         <v>0</v>
       </c>
       <c r="AC78">
-        <v>23.30920720875539</v>
+        <v>23.30920722995159</v>
       </c>
       <c r="AD78">
         <v>1</v>
@@ -71577,7 +71577,7 @@
         <v>0</v>
       </c>
       <c r="CK78">
-        <v>69.28877318103827</v>
+        <v>69.28877331072668</v>
       </c>
       <c r="CL78">
         <v>1</v>
@@ -71790,7 +71790,7 @@
         <v>0</v>
       </c>
       <c r="FD78">
-        <v>0.8608602572689392</v>
+        <v>0.8608602692868317</v>
       </c>
       <c r="FE78">
         <v>0</v>
@@ -71928,7 +71928,7 @@
         <v>2021</v>
       </c>
       <c r="GX78">
-        <v>1.39854158896047</v>
+        <v>1.398541587467037</v>
       </c>
       <c r="GY78">
         <v>0</v>
@@ -72069,7 +72069,7 @@
         <v>2012</v>
       </c>
       <c r="IS78">
-        <v>1844.406086548464</v>
+        <v>1844.406094213991</v>
       </c>
       <c r="IT78">
         <v>0</v>
@@ -72111,7 +72111,7 @@
         <v>0</v>
       </c>
       <c r="JG78">
-        <v>1873.058067659025</v>
+        <v>1873.058071129752</v>
       </c>
       <c r="JH78" t="s">
         <v>635</v>
@@ -72138,7 +72138,7 @@
         <v>1</v>
       </c>
       <c r="JP78">
-        <v>596.2624927255024</v>
+        <v>596.2625028243692</v>
       </c>
       <c r="JQ78">
         <v>0</v>
@@ -72147,7 +72147,7 @@
         <v>0</v>
       </c>
       <c r="JS78">
-        <v>596.2624927255024</v>
+        <v>596.2625028243692</v>
       </c>
       <c r="JT78">
         <v>2020</v>
@@ -72260,10 +72260,10 @@
         <v>4</v>
       </c>
       <c r="V79">
-        <v>9604032.126889747</v>
+        <v>9604032.132316243</v>
       </c>
       <c r="W79">
-        <v>16559731.88356829</v>
+        <v>16559731.88950582</v>
       </c>
       <c r="X79">
         <v>1983</v>
@@ -72281,7 +72281,7 @@
         <v>0</v>
       </c>
       <c r="AC79">
-        <v>25.65495488258411</v>
+        <v>25.65495487170761</v>
       </c>
       <c r="AD79">
         <v>1</v>
@@ -72461,7 +72461,7 @@
         <v>0</v>
       </c>
       <c r="CK79">
-        <v>68.2383210707581</v>
+        <v>68.23832103630291</v>
       </c>
       <c r="CL79">
         <v>1</v>
@@ -72674,7 +72674,7 @@
         <v>0</v>
       </c>
       <c r="FD79">
-        <v>2.615112284485463</v>
+        <v>2.615104062124772</v>
       </c>
       <c r="FE79">
         <v>0</v>
@@ -72812,7 +72812,7 @@
         <v>2021</v>
       </c>
       <c r="GX79">
-        <v>1.38334560418086</v>
+        <v>1.383318265644377</v>
       </c>
       <c r="GY79">
         <v>0</v>
@@ -72971,13 +72971,13 @@
         <v>0</v>
       </c>
       <c r="IY79">
-        <v>20232976.5599998</v>
+        <v>20232976.55997891</v>
       </c>
       <c r="IZ79" s="2">
         <v>44210</v>
       </c>
       <c r="JA79">
-        <v>97.69164610768139</v>
+        <v>97.69164607784442</v>
       </c>
       <c r="JB79">
         <v>0</v>
@@ -73345,7 +73345,7 @@
         <v>0</v>
       </c>
       <c r="CK80">
-        <v>68.70937093335812</v>
+        <v>68.70937090397619</v>
       </c>
       <c r="CL80">
         <v>1</v>
@@ -73837,7 +73837,7 @@
         <v>2009</v>
       </c>
       <c r="IS80">
-        <v>1189.271819941478</v>
+        <v>1189.271821845636</v>
       </c>
       <c r="IT80">
         <v>7.5067</v>
@@ -73879,7 +73879,7 @@
         <v>0</v>
       </c>
       <c r="JG80">
-        <v>1237.222445556174</v>
+        <v>1237.222443763538</v>
       </c>
       <c r="JH80" t="s">
         <v>637</v>
@@ -73906,7 +73906,7 @@
         <v>1</v>
       </c>
       <c r="JP80">
-        <v>141.187098978558</v>
+        <v>141.1870994108326</v>
       </c>
       <c r="JQ80">
         <v>0</v>
@@ -73915,7 +73915,7 @@
         <v>0</v>
       </c>
       <c r="JS80">
-        <v>141.187098978558</v>
+        <v>141.1870994108326</v>
       </c>
       <c r="JT80">
         <v>2020</v>
@@ -74028,10 +74028,10 @@
         <v>4</v>
       </c>
       <c r="V81">
-        <v>14888454.24362146</v>
+        <v>14888454.23199258</v>
       </c>
       <c r="W81">
-        <v>24795708.63182644</v>
+        <v>24795708.61333611</v>
       </c>
       <c r="X81">
         <v>1971</v>
@@ -74229,7 +74229,7 @@
         <v>0</v>
       </c>
       <c r="CK81">
-        <v>70.60763952013738</v>
+        <v>70.60763958019098</v>
       </c>
       <c r="CL81">
         <v>1</v>
@@ -74406,7 +74406,7 @@
         <v>43.429693</v>
       </c>
       <c r="ER81">
-        <v>-12.75129025812713</v>
+        <v>-12.75123799287516</v>
       </c>
       <c r="ES81">
         <v>1</v>
@@ -74442,7 +74442,7 @@
         <v>0</v>
       </c>
       <c r="FD81">
-        <v>4.844132431290802</v>
+        <v>4.844120816917041</v>
       </c>
       <c r="FE81">
         <v>0</v>
@@ -74580,7 +74580,7 @@
         <v>2021</v>
       </c>
       <c r="GX81">
-        <v>1.73190702964834</v>
+        <v>1.731868409195599</v>
       </c>
       <c r="GY81">
         <v>0</v>
@@ -74721,7 +74721,7 @@
         <v>2008</v>
       </c>
       <c r="IS81">
-        <v>4401.830665904934</v>
+        <v>4401.830664173322</v>
       </c>
       <c r="IT81">
         <v>30.07</v>
@@ -74757,13 +74757,13 @@
         <v>573</v>
       </c>
       <c r="JE81">
-        <v>3808155.791276904</v>
+        <v>3808155.79217459</v>
       </c>
       <c r="JF81">
-        <v>3733402.763096895</v>
+        <v>3733402.76442332</v>
       </c>
       <c r="JG81">
-        <v>4168.11552725092</v>
+        <v>4168.115528261384</v>
       </c>
       <c r="JH81" t="s">
         <v>638</v>
@@ -74912,10 +74912,10 @@
         <v>4</v>
       </c>
       <c r="V82">
-        <v>10986449.23805104</v>
+        <v>10986449.23465934</v>
       </c>
       <c r="W82">
-        <v>18912324.55302154</v>
+        <v>18912324.5460349</v>
       </c>
       <c r="X82">
         <v>1964</v>
@@ -75326,7 +75326,7 @@
         <v>0</v>
       </c>
       <c r="FD82">
-        <v>5.978502994592588</v>
+        <v>5.978484881006239</v>
       </c>
       <c r="FE82">
         <v>0</v>
@@ -75464,7 +75464,7 @@
         <v>2021</v>
       </c>
       <c r="GX82">
-        <v>0.6192174322994504</v>
+        <v>0.6191572415361577</v>
       </c>
       <c r="GY82">
         <v>0</v>
@@ -75796,10 +75796,10 @@
         <v>4</v>
       </c>
       <c r="V83">
-        <v>10557125.46765715</v>
+        <v>10557125.45744776</v>
       </c>
       <c r="W83">
-        <v>18116223.21367384</v>
+        <v>18116223.19805109</v>
       </c>
       <c r="X83">
         <v>1958</v>
@@ -76210,7 +76210,7 @@
         <v>0</v>
       </c>
       <c r="FD83">
-        <v>4.448604243706598</v>
+        <v>4.4485932704481</v>
       </c>
       <c r="FE83">
         <v>0</v>
@@ -76348,7 +76348,7 @@
         <v>2021</v>
       </c>
       <c r="GX83">
-        <v>1.770953395019262</v>
+        <v>1.770916901670958</v>
       </c>
       <c r="GY83">
         <v>0</v>
@@ -77094,7 +77094,7 @@
         <v>0</v>
       </c>
       <c r="FD84">
-        <v>3.509043355872222</v>
+        <v>3.509027359558502</v>
       </c>
       <c r="FE84">
         <v>0</v>
@@ -77232,7 +77232,7 @@
         <v>2021</v>
       </c>
       <c r="GX84">
-        <v>1.493994717986951</v>
+        <v>1.493995186762746</v>
       </c>
       <c r="GY84">
         <v>0</v>
@@ -77373,7 +77373,7 @@
         <v>2003</v>
       </c>
       <c r="IS84">
-        <v>3832.621418629969</v>
+        <v>3832.621420130119</v>
       </c>
       <c r="IT84">
         <v>10.2175</v>
@@ -77397,7 +77397,7 @@
         <v>44211</v>
       </c>
       <c r="JA84">
-        <v>19.03688216534673</v>
+        <v>19.03688212766268</v>
       </c>
       <c r="JB84">
         <v>0</v>
@@ -77564,10 +77564,10 @@
         <v>4</v>
       </c>
       <c r="V85">
-        <v>11363963.18081589</v>
+        <v>11363963.18752528</v>
       </c>
       <c r="W85">
-        <v>19495337.47079231</v>
+        <v>19495337.48144375</v>
       </c>
       <c r="X85">
         <v>1959</v>
@@ -77702,7 +77702,7 @@
         <v>0</v>
       </c>
       <c r="BP85">
-        <v>1.606379309588653</v>
+        <v>1.606379308878802</v>
       </c>
       <c r="BQ85">
         <v>1</v>
@@ -77765,7 +77765,7 @@
         <v>0</v>
       </c>
       <c r="CK85">
-        <v>69.31763853496614</v>
+        <v>69.31763853686461</v>
       </c>
       <c r="CL85">
         <v>1</v>
@@ -77978,7 +77978,7 @@
         <v>0</v>
       </c>
       <c r="FD85">
-        <v>4.336974316848909</v>
+        <v>4.336959592646906</v>
       </c>
       <c r="FE85">
         <v>0</v>
@@ -78116,7 +78116,7 @@
         <v>2021</v>
       </c>
       <c r="GX85">
-        <v>0.03104073379935812</v>
+        <v>0.03099176663947389</v>
       </c>
       <c r="GY85">
         <v>0</v>
@@ -78275,13 +78275,13 @@
         <v>0</v>
       </c>
       <c r="IY85">
-        <v>20237249.85828413</v>
+        <v>20237249.85826094</v>
       </c>
       <c r="IZ85" s="2">
         <v>44211</v>
       </c>
       <c r="JA85">
-        <v>119.9295082891842</v>
+        <v>119.9295082317761</v>
       </c>
       <c r="JB85">
         <v>0</v>
@@ -78448,10 +78448,10 @@
         <v>3</v>
       </c>
       <c r="V86">
-        <v>10430897.46953147</v>
+        <v>10430897.48087327</v>
       </c>
       <c r="W86">
-        <v>17858857.50637992</v>
+        <v>17858857.52590761</v>
       </c>
       <c r="X86">
         <v>1966</v>
@@ -78862,7 +78862,7 @@
         <v>0</v>
       </c>
       <c r="FD86">
-        <v>2.894273917923954</v>
+        <v>2.894265870140885</v>
       </c>
       <c r="FE86">
         <v>0</v>
@@ -79000,7 +79000,7 @@
         <v>2021</v>
       </c>
       <c r="GX86">
-        <v>1.406459560859304</v>
+        <v>1.406432802224273</v>
       </c>
       <c r="GY86">
         <v>0</v>
@@ -79332,10 +79332,10 @@
         <v>4</v>
       </c>
       <c r="V87">
-        <v>10269310.17040012</v>
+        <v>10269310.16674908</v>
       </c>
       <c r="W87">
-        <v>17718881.5554949</v>
+        <v>17718881.54790675</v>
       </c>
       <c r="X87">
         <v>1973</v>
@@ -79710,7 +79710,7 @@
         <v>43.381955</v>
       </c>
       <c r="ER87">
-        <v>17.26081048836507</v>
+        <v>17.26086120386422</v>
       </c>
       <c r="ES87">
         <v>1</v>
@@ -79746,7 +79746,7 @@
         <v>0</v>
       </c>
       <c r="FD87">
-        <v>3.220809892156694</v>
+        <v>3.22080179099504</v>
       </c>
       <c r="FE87">
         <v>0</v>
@@ -79884,7 +79884,7 @@
         <v>2021</v>
       </c>
       <c r="GX87">
-        <v>2.042798654594648</v>
+        <v>2.042771709622414</v>
       </c>
       <c r="GY87">
         <v>0</v>
@@ -80216,10 +80216,10 @@
         <v>6</v>
       </c>
       <c r="V88">
-        <v>12067687.79037563</v>
+        <v>12067687.76364032</v>
       </c>
       <c r="W88">
-        <v>20363039.54804533</v>
+        <v>20363039.49947028</v>
       </c>
       <c r="X88">
         <v>1980</v>
@@ -80417,7 +80417,7 @@
         <v>0</v>
       </c>
       <c r="CK88">
-        <v>69.31763853496614</v>
+        <v>69.31763853686461</v>
       </c>
       <c r="CL88">
         <v>1</v>
@@ -80630,7 +80630,7 @@
         <v>0</v>
       </c>
       <c r="FD88">
-        <v>4.383785634071558</v>
+        <v>4.383775580357792</v>
       </c>
       <c r="FE88">
         <v>0</v>
@@ -80768,7 +80768,7 @@
         <v>2021</v>
       </c>
       <c r="GX88">
-        <v>0.09721859582174375</v>
+        <v>0.09718516103326635</v>
       </c>
       <c r="GY88">
         <v>0</v>
@@ -81100,10 +81100,10 @@
         <v>4</v>
       </c>
       <c r="V89">
-        <v>9436490.705426682</v>
+        <v>9436490.694096211</v>
       </c>
       <c r="W89">
-        <v>16352483.68726265</v>
+        <v>16352483.6688737</v>
       </c>
       <c r="X89">
         <v>1987</v>
@@ -81514,7 +81514,7 @@
         <v>1</v>
       </c>
       <c r="FD89">
-        <v>3.104507420456571</v>
+        <v>3.104499189467504</v>
       </c>
       <c r="FE89">
         <v>0</v>
@@ -81652,7 +81652,7 @@
         <v>2021</v>
       </c>
       <c r="GX89">
-        <v>1.746568750603174</v>
+        <v>1.74654140505011</v>
       </c>
       <c r="GY89">
         <v>0</v>
@@ -82185,7 +82185,7 @@
         <v>0</v>
       </c>
       <c r="CK90">
-        <v>69.76680214162573</v>
+        <v>69.76680212897422</v>
       </c>
       <c r="CL90">
         <v>1</v>
@@ -82677,7 +82677,7 @@
         <v>1994</v>
       </c>
       <c r="IS90">
-        <v>1133.358357680641</v>
+        <v>1133.358361021594</v>
       </c>
       <c r="IT90">
         <v>2.196</v>
@@ -82719,7 +82719,7 @@
         <v>0</v>
       </c>
       <c r="JG90">
-        <v>1170.972114515978</v>
+        <v>1170.972113859047</v>
       </c>
       <c r="JH90" t="s">
         <v>646</v>
@@ -82746,7 +82746,7 @@
         <v>1</v>
       </c>
       <c r="JP90">
-        <v>239.0226362861199</v>
+        <v>239.0226359444566</v>
       </c>
       <c r="JQ90">
         <v>0</v>
@@ -82755,7 +82755,7 @@
         <v>0</v>
       </c>
       <c r="JS90">
-        <v>239.0226362861199</v>
+        <v>239.0226359444566</v>
       </c>
       <c r="JT90">
         <v>2020</v>
@@ -82868,10 +82868,10 @@
         <v>4</v>
       </c>
       <c r="V91">
-        <v>9649669.625844393</v>
+        <v>9649669.626539584</v>
       </c>
       <c r="W91">
-        <v>16613948.61798903</v>
+        <v>16613948.61351699</v>
       </c>
       <c r="X91">
         <v>2002</v>
@@ -83246,7 +83246,7 @@
         <v>43.4903281611614</v>
       </c>
       <c r="ER91">
-        <v>21.9016604202063</v>
+        <v>21.90174767354193</v>
       </c>
       <c r="ES91">
         <v>1</v>
@@ -83282,7 +83282,7 @@
         <v>0</v>
       </c>
       <c r="FD91">
-        <v>2.385376391331988</v>
+        <v>2.385366751769709</v>
       </c>
       <c r="FE91">
         <v>0</v>
@@ -83420,7 +83420,7 @@
         <v>2021</v>
       </c>
       <c r="GX91">
-        <v>-0.7248464810432154</v>
+        <v>-0.7248784732576183</v>
       </c>
       <c r="GY91">
         <v>0</v>
@@ -83561,7 +83561,7 @@
         <v>2002</v>
       </c>
       <c r="IS91">
-        <v>3091.567719706814</v>
+        <v>3091.567715120545</v>
       </c>
       <c r="IT91">
         <v>28.7496</v>
@@ -83597,13 +83597,13 @@
         <v>575</v>
       </c>
       <c r="JE91">
-        <v>3507954.017406662</v>
+        <v>3507954.01765212</v>
       </c>
       <c r="JF91">
-        <v>3447648.204743089</v>
+        <v>3447648.204885542</v>
       </c>
       <c r="JG91">
-        <v>3012.386546899543</v>
+        <v>3012.386544453017</v>
       </c>
       <c r="JH91" t="s">
         <v>631</v>
@@ -83773,7 +83773,7 @@
         <v>0</v>
       </c>
       <c r="AC92">
-        <v>25.4416098710948</v>
+        <v>25.44160987420436</v>
       </c>
       <c r="AD92">
         <v>1</v>
@@ -83953,7 +83953,7 @@
         <v>1</v>
       </c>
       <c r="CK92">
-        <v>70.45329434090011</v>
+        <v>70.45329436589911</v>
       </c>
       <c r="CL92">
         <v>1</v>
@@ -84130,7 +84130,7 @@
         <v>43.4746114</v>
       </c>
       <c r="ER92">
-        <v>3.766318445342648</v>
+        <v>3.766342690201569</v>
       </c>
       <c r="ES92">
         <v>1</v>
@@ -84166,7 +84166,7 @@
         <v>0</v>
       </c>
       <c r="FD92">
-        <v>2.619454170893903</v>
+        <v>2.619462892107379</v>
       </c>
       <c r="FE92">
         <v>0</v>
@@ -84304,7 +84304,7 @@
         <v>2021</v>
       </c>
       <c r="GX92">
-        <v>1.229648668888728</v>
+        <v>1.229687666804494</v>
       </c>
       <c r="GY92">
         <v>0</v>
@@ -84657,7 +84657,7 @@
         <v>1</v>
       </c>
       <c r="AC93">
-        <v>17.75425839088286</v>
+        <v>17.75425838193152</v>
       </c>
       <c r="AD93">
         <v>1</v>
@@ -85014,7 +85014,7 @@
         <v>43.4807856297891</v>
       </c>
       <c r="ER93">
-        <v>2.434947777376905</v>
+        <v>2.434946098520044</v>
       </c>
       <c r="ES93">
         <v>1</v>
@@ -85934,7 +85934,7 @@
         <v>1</v>
       </c>
       <c r="FD94">
-        <v>0.8528563587071289</v>
+        <v>0.8528552327230159</v>
       </c>
       <c r="FE94">
         <v>0</v>
@@ -86072,7 +86072,7 @@
         <v>2021</v>
       </c>
       <c r="GX94">
-        <v>1.386479487048348</v>
+        <v>1.386480029552146</v>
       </c>
       <c r="GY94">
         <v>0</v>
@@ -86213,7 +86213,7 @@
         <v>2016</v>
       </c>
       <c r="IS94">
-        <v>2364.520063883989</v>
+        <v>2364.520066159981</v>
       </c>
       <c r="IT94">
         <v>5.9778</v>
@@ -86255,7 +86255,7 @@
         <v>0</v>
       </c>
       <c r="JG94">
-        <v>2371.065657819279</v>
+        <v>2371.06565883982</v>
       </c>
       <c r="JH94" t="s">
         <v>648</v>
@@ -86282,7 +86282,7 @@
         <v>1</v>
       </c>
       <c r="JP94">
-        <v>3933.695867661857</v>
+        <v>3933.69586908727</v>
       </c>
       <c r="JQ94">
         <v>0</v>
@@ -86291,7 +86291,7 @@
         <v>0</v>
       </c>
       <c r="JS94">
-        <v>3933.695867661857</v>
+        <v>3933.69586908727</v>
       </c>
       <c r="JT94">
         <v>2020</v>
@@ -86404,10 +86404,10 @@
         <v>4</v>
       </c>
       <c r="V95">
-        <v>10412964.54414771</v>
+        <v>10412964.5367053</v>
       </c>
       <c r="W95">
-        <v>17863164.20861936</v>
+        <v>17863164.19644796</v>
       </c>
       <c r="X95">
         <v>2014</v>
@@ -86818,7 +86818,7 @@
         <v>1</v>
       </c>
       <c r="FD95">
-        <v>4.378539425531187</v>
+        <v>4.378528952917918</v>
       </c>
       <c r="FE95">
         <v>0</v>
@@ -86956,7 +86956,7 @@
         <v>2021</v>
       </c>
       <c r="GX95">
-        <v>1.733023880643572</v>
+        <v>1.732989073700011</v>
       </c>
       <c r="GY95">
         <v>0</v>
@@ -87097,7 +87097,7 @@
         <v>2014</v>
       </c>
       <c r="IS95">
-        <v>2478.101087474395</v>
+        <v>2478.101086255294</v>
       </c>
       <c r="IT95">
         <v>24.3756</v>
@@ -87133,13 +87133,13 @@
         <v>561</v>
       </c>
       <c r="JE95">
-        <v>3319611.803863562</v>
+        <v>3319611.804018253</v>
       </c>
       <c r="JF95">
-        <v>3268870.183195192</v>
+        <v>3268870.183480375</v>
       </c>
       <c r="JG95">
-        <v>2465.162762812441</v>
+        <v>2465.162765732166</v>
       </c>
       <c r="JH95" t="s">
         <v>649</v>
@@ -87288,10 +87288,10 @@
         <v>5</v>
       </c>
       <c r="V96">
-        <v>10957362.98002439</v>
+        <v>10957362.98225542</v>
       </c>
       <c r="W96">
-        <v>19408830.87470176</v>
+        <v>19408830.88397901</v>
       </c>
       <c r="X96">
         <v>2011</v>
@@ -87702,7 +87702,7 @@
         <v>1</v>
       </c>
       <c r="FD96">
-        <v>1.265995129611952</v>
+        <v>1.265998874980141</v>
       </c>
       <c r="FE96">
         <v>0</v>
@@ -87840,7 +87840,7 @@
         <v>2021</v>
       </c>
       <c r="GX96">
-        <v>-0.9670765784617288</v>
+        <v>-0.9671612465034229</v>
       </c>
       <c r="GY96">
         <v>0</v>
@@ -88005,7 +88005,7 @@
         <v>44213</v>
       </c>
       <c r="JA96">
-        <v>19.03688216534673</v>
+        <v>19.03688212766268</v>
       </c>
       <c r="JB96">
         <v>0</v>
@@ -88373,7 +88373,7 @@
         <v>0</v>
       </c>
       <c r="CK97">
-        <v>70.03117461896585</v>
+        <v>70.03117460624578</v>
       </c>
       <c r="CL97">
         <v>1</v>
@@ -88586,7 +88586,7 @@
         <v>1</v>
       </c>
       <c r="FD97">
-        <v>1.000381322614942</v>
+        <v>1.000381315737798</v>
       </c>
       <c r="FE97">
         <v>0</v>
@@ -88724,7 +88724,7 @@
         <v>2021</v>
       </c>
       <c r="GX97">
-        <v>1.489374126654695</v>
+        <v>1.489374126239397</v>
       </c>
       <c r="GY97">
         <v>0</v>
@@ -88865,7 +88865,7 @@
         <v>2008</v>
       </c>
       <c r="IS97">
-        <v>2950.439339770339</v>
+        <v>2950.439340391451</v>
       </c>
       <c r="IT97">
         <v>0</v>
@@ -88907,7 +88907,7 @@
         <v>0</v>
       </c>
       <c r="JG97">
-        <v>2942.039821978324</v>
+        <v>2942.039821536404</v>
       </c>
       <c r="JH97" t="s">
         <v>623</v>
@@ -88934,7 +88934,7 @@
         <v>1</v>
       </c>
       <c r="JP97">
-        <v>1260.820701505705</v>
+        <v>1260.820697377443</v>
       </c>
       <c r="JQ97">
         <v>0</v>
@@ -88943,7 +88943,7 @@
         <v>0</v>
       </c>
       <c r="JS97">
-        <v>1260.820701505705</v>
+        <v>1260.820697377443</v>
       </c>
       <c r="JT97">
         <v>2020</v>
@@ -89818,7 +89818,7 @@
         <v>1</v>
       </c>
       <c r="JP98">
-        <v>1072.675021236956</v>
+        <v>1072.675029944277</v>
       </c>
       <c r="JQ98">
         <v>0</v>
@@ -89827,7 +89827,7 @@
         <v>0</v>
       </c>
       <c r="JS98">
-        <v>1072.675021236956</v>
+        <v>1072.675029944277</v>
       </c>
       <c r="JT98">
         <v>2020</v>
@@ -90633,7 +90633,7 @@
         <v>2003</v>
       </c>
       <c r="IS99">
-        <v>1299.433550438516</v>
+        <v>1299.433555990461</v>
       </c>
       <c r="IT99">
         <v>0</v>
@@ -90675,7 +90675,7 @@
         <v>0</v>
       </c>
       <c r="JG99">
-        <v>1367.020042358607</v>
+        <v>1367.020040062605</v>
       </c>
       <c r="JH99" t="s">
         <v>652</v>
@@ -90702,7 +90702,7 @@
         <v>1</v>
       </c>
       <c r="JP99">
-        <v>137.8554104638692</v>
+        <v>137.8554110218672</v>
       </c>
       <c r="JQ99">
         <v>0</v>
@@ -90711,7 +90711,7 @@
         <v>0</v>
       </c>
       <c r="JS99">
-        <v>137.8554104638692</v>
+        <v>137.8554110218672</v>
       </c>
       <c r="JT99">
         <v>2020</v>
@@ -90824,10 +90824,10 @@
         <v>3</v>
       </c>
       <c r="V100">
-        <v>10870087.01695452</v>
+        <v>10870087.01663392</v>
       </c>
       <c r="W100">
-        <v>18610035.08031134</v>
+        <v>18610035.07917333</v>
       </c>
       <c r="X100">
         <v>1998</v>
@@ -91202,7 +91202,7 @@
         <v>43.4156873</v>
       </c>
       <c r="ER100">
-        <v>20.40323040717134</v>
+        <v>20.40328537413741</v>
       </c>
       <c r="ES100">
         <v>1</v>
@@ -91238,7 +91238,7 @@
         <v>0</v>
       </c>
       <c r="FD100">
-        <v>3.979050182955973</v>
+        <v>3.979039208817539</v>
       </c>
       <c r="FE100">
         <v>0</v>
@@ -91376,7 +91376,7 @@
         <v>2021</v>
       </c>
       <c r="GX100">
-        <v>0.7689145222217917</v>
+        <v>0.7688780367188599</v>
       </c>
       <c r="GY100">
         <v>0</v>
@@ -91517,7 +91517,7 @@
         <v>1998</v>
       </c>
       <c r="IS100">
-        <v>1291.218705534651</v>
+        <v>1291.218705450341</v>
       </c>
       <c r="IT100">
         <v>0</v>
@@ -91553,13 +91553,13 @@
         <v>565</v>
       </c>
       <c r="JE100">
-        <v>2630692.913830308</v>
+        <v>2630692.913491156</v>
       </c>
       <c r="JF100">
-        <v>2601817.088223958</v>
+        <v>2601817.088053666</v>
       </c>
       <c r="JG100">
-        <v>1213.844137504842</v>
+        <v>1213.844139215733</v>
       </c>
       <c r="JH100" t="s">
         <v>653</v>
@@ -92122,7 +92122,7 @@
         <v>0</v>
       </c>
       <c r="FD101">
-        <v>0.7155065695642975</v>
+        <v>0.7155065790409481</v>
       </c>
       <c r="FE101">
         <v>0</v>
@@ -92260,7 +92260,7 @@
         <v>2021</v>
       </c>
       <c r="GX101">
-        <v>2.281012983538133</v>
+        <v>2.281012982133831</v>
       </c>
       <c r="GY101">
         <v>0</v>
@@ -92470,7 +92470,7 @@
         <v>1</v>
       </c>
       <c r="JP101">
-        <v>-515.9036768570568</v>
+        <v>-515.9036700653655</v>
       </c>
       <c r="JQ101">
         <v>0</v>
@@ -92479,7 +92479,7 @@
         <v>0</v>
       </c>
       <c r="JS101">
-        <v>-515.9036768570568</v>
+        <v>-515.9036700653655</v>
       </c>
       <c r="JT101">
         <v>2020</v>
